--- a/Covid_mond.xlsx
+++ b/Covid_mond.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\COVID19_Factor_Analyis-\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Desktop\Progetti ML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AA4ABFDA-1B9A-41AF-8151-8090D7333226}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C44516-30DC-4AAA-BD2A-DDAF110D9306}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{725284C1-A340-430F-9465-C4DD22949E08}"/>
   </bookViews>
@@ -1567,7 +1567,7 @@
   <dimension ref="A1:K165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Covid_mond.xlsx
+++ b/Covid_mond.xlsx
@@ -5,18 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Desktop\Progetti ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marzio\Documents\GitHub\COVID19_Factor_Analyis-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C23C999-62A2-47CB-BD94-70F9F13BC55F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F07034D2-6F12-4B8D-BF0B-60955983F549}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{725284C1-A340-430F-9465-C4DD22949E08}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="26235" windowHeight="14265" xr2:uid="{725284C1-A340-430F-9465-C4DD22949E08}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="9" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$N$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Foglio1!$A$1:$M$176</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="314">
   <si>
     <t>AF</t>
   </si>
@@ -980,9 +980,6 @@
   </si>
   <si>
     <t xml:space="preserve">Density </t>
-  </si>
-  <si>
-    <t>GDP</t>
   </si>
   <si>
     <t>GDP procapita</t>
@@ -1364,24 +1361,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BFA593-6844-4434-96F5-B785BEB036CC}">
-  <dimension ref="A1:O151"/>
+  <dimension ref="A1:N151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B130" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="29" customWidth="1"/>
     <col min="8" max="8" width="12.85546875" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.42578125" customWidth="1"/>
-    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>301</v>
       </c>
@@ -1424,11 +1421,8 @@
       <c r="N1" t="s">
         <v>313</v>
       </c>
-      <c r="O1" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1454,28 +1448,25 @@
         <v>3.6722804364687994E-5</v>
       </c>
       <c r="I2">
-        <v>19.101353832737125</v>
+        <v>5.021154473158831E-7</v>
       </c>
       <c r="J2">
-        <v>5.021154473158831E-7</v>
-      </c>
-      <c r="K2">
         <v>67.122650149999998</v>
       </c>
+      <c r="K2" s="1">
+        <v>15.1</v>
+      </c>
       <c r="L2" s="1">
-        <v>15.1</v>
+        <v>37</v>
       </c>
       <c r="M2" s="1">
-        <v>37</v>
+        <v>211.1</v>
       </c>
       <c r="N2" s="1">
-        <v>211.1</v>
-      </c>
-      <c r="O2" s="1">
         <v>59.9</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1501,28 +1492,25 @@
         <v>3.2049973827425784E-6</v>
       </c>
       <c r="I3">
-        <v>94.635415869985081</v>
+        <v>2.9735907860593889E-6</v>
       </c>
       <c r="J3">
-        <v>2.9735907860593889E-6</v>
-      </c>
-      <c r="K3">
         <v>114.45964050000001</v>
       </c>
+      <c r="K3" s="1">
+        <v>23.6</v>
+      </c>
       <c r="L3" s="1">
-        <v>23.6</v>
+        <v>40</v>
       </c>
       <c r="M3" s="1">
-        <v>40</v>
+        <v>118.5</v>
       </c>
       <c r="N3" s="1">
-        <v>118.5</v>
-      </c>
-      <c r="O3" s="1">
         <v>28.4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1548,28 +1536,25 @@
         <v>3.0891211450342376E-5</v>
       </c>
       <c r="I4">
-        <v>1.7277592592592592</v>
+        <v>1.7790858871021565E-5</v>
       </c>
       <c r="J4">
-        <v>1.7790858871021565E-5</v>
-      </c>
-      <c r="K4">
         <v>673.85968018000005</v>
       </c>
+      <c r="K4" s="1">
+        <v>7.9</v>
+      </c>
       <c r="L4" s="1">
-        <v>7.9</v>
+        <v>73</v>
       </c>
       <c r="M4" s="1">
-        <v>73</v>
+        <v>29.9</v>
       </c>
       <c r="N4" s="1">
-        <v>29.9</v>
-      </c>
-      <c r="O4" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1595,28 +1580,25 @@
         <v>1.6529451599378526E-4</v>
       </c>
       <c r="I5">
-        <v>449.66344695407275</v>
+        <v>1.0041462013559928E-5</v>
       </c>
       <c r="J5">
-        <v>1.0041462013559928E-5</v>
-      </c>
-      <c r="K5">
         <v>1324.6035156299997</v>
       </c>
+      <c r="K5" s="1">
+        <v>14</v>
+      </c>
       <c r="L5" s="1">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="M5" s="1">
-        <v>76</v>
+        <v>26.6</v>
       </c>
       <c r="N5" s="1">
-        <v>26.6</v>
-      </c>
-      <c r="O5" s="1">
         <v>11.7</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1642,28 +1624,25 @@
         <v>2.9110181869326725E-4</v>
       </c>
       <c r="I6">
-        <v>13.672802157832392</v>
+        <v>4.6227381820885459E-6</v>
       </c>
       <c r="J6">
-        <v>4.6227381820885459E-6</v>
-      </c>
-      <c r="K6">
         <v>407.63586426000001</v>
       </c>
+      <c r="K6" s="1">
+        <v>17.100000000000001</v>
+      </c>
       <c r="L6" s="1">
-        <v>17.100000000000001</v>
+        <v>69</v>
       </c>
       <c r="M6" s="1">
-        <v>69</v>
+        <v>54.8</v>
       </c>
       <c r="N6" s="1">
-        <v>54.8</v>
-      </c>
-      <c r="O6" s="1">
         <v>32.9</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1689,28 +1668,25 @@
         <v>8.1852725840939045E-5</v>
       </c>
       <c r="I7">
-        <v>446.31473952846983</v>
+        <v>4.9839124165612499E-5</v>
       </c>
       <c r="J7">
-        <v>4.9839124165612499E-5</v>
-      </c>
-      <c r="K7">
         <v>4939.8754882800004</v>
       </c>
+      <c r="K7" s="1">
+        <v>5.2</v>
+      </c>
       <c r="L7" s="1">
-        <v>5.2</v>
+        <v>79</v>
       </c>
       <c r="M7" s="1">
-        <v>79</v>
+        <v>15.3</v>
       </c>
       <c r="N7" s="1">
-        <v>15.3</v>
-      </c>
-      <c r="O7" s="1">
         <v>13.1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -1736,28 +1712,25 @@
         <v>5.1852564746287194E-5</v>
       </c>
       <c r="I8">
-        <v>48.047647058823522</v>
+        <v>4.7819457390103684E-6</v>
       </c>
       <c r="J8">
-        <v>4.7819457390103684E-6</v>
-      </c>
-      <c r="K8">
         <v>275.80935669000002</v>
       </c>
+      <c r="K8" s="1">
+        <v>8.6999999999999993</v>
+      </c>
       <c r="L8" s="1">
-        <v>8.6999999999999993</v>
+        <v>65</v>
       </c>
       <c r="M8" s="1">
-        <v>65</v>
+        <v>63.9</v>
       </c>
       <c r="N8" s="1">
-        <v>63.9</v>
-      </c>
-      <c r="O8" s="1">
         <v>18.5</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -1783,28 +1756,25 @@
         <v>2.470465835466129E-5</v>
       </c>
       <c r="I9">
-        <v>302.57125413113511</v>
+        <v>1.8557396875002709E-6</v>
       </c>
       <c r="J9">
-        <v>1.8557396875002709E-6</v>
-      </c>
-      <c r="K9">
         <v>36.28233719</v>
       </c>
+      <c r="K9" s="1">
+        <v>15.3</v>
+      </c>
       <c r="L9" s="1">
-        <v>15.3</v>
+        <v>48</v>
       </c>
       <c r="M9" s="1">
-        <v>48</v>
+        <v>149</v>
       </c>
       <c r="N9" s="1">
-        <v>149</v>
-      </c>
-      <c r="O9" s="1">
         <v>58.6</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1830,28 +1800,25 @@
         <v>2.4388459381020902E-5</v>
       </c>
       <c r="I10">
-        <v>5.2089999999999996</v>
+        <v>1.8148497845105408E-5</v>
       </c>
       <c r="J10">
-        <v>1.8148497845105408E-5</v>
-      </c>
-      <c r="K10">
         <v>1183.8361816399997</v>
       </c>
+      <c r="K10" s="1">
+        <v>5.6</v>
+      </c>
       <c r="L10" s="1">
-        <v>5.6</v>
+        <v>77</v>
       </c>
       <c r="M10" s="1">
-        <v>77</v>
+        <v>31.1</v>
       </c>
       <c r="N10" s="1">
-        <v>31.1</v>
-      </c>
-      <c r="O10" s="1">
         <v>22.4</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1877,28 +1844,25 @@
         <v>6.8977125302131979E-5</v>
       </c>
       <c r="I11">
-        <v>63.080457022659914</v>
+        <v>6.6734794297051595E-6</v>
       </c>
       <c r="J11">
-        <v>6.6734794297051595E-6</v>
-      </c>
-      <c r="K11">
         <v>342.49990845000002</v>
       </c>
+      <c r="K11" s="1">
+        <v>8.9</v>
+      </c>
       <c r="L11" s="1">
-        <v>8.9</v>
+        <v>76</v>
       </c>
       <c r="M11" s="1">
-        <v>76</v>
+        <v>60.7</v>
       </c>
       <c r="N11" s="1">
-        <v>60.7</v>
-      </c>
-      <c r="O11" s="1">
         <v>19.3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1924,28 +1888,25 @@
         <v>8.5602919962569739E-4</v>
       </c>
       <c r="I12">
-        <v>529.60671041803835</v>
+        <v>4.5895809722165607E-5</v>
       </c>
       <c r="J12">
-        <v>4.5895809722165607E-5</v>
-      </c>
-      <c r="K12">
         <v>4507.3564453099989</v>
       </c>
+      <c r="K12" s="1">
+        <v>5.8</v>
+      </c>
       <c r="L12" s="1">
-        <v>5.8</v>
+        <v>84</v>
       </c>
       <c r="M12" s="1">
-        <v>84</v>
+        <v>15.7</v>
       </c>
       <c r="N12" s="1">
-        <v>15.7</v>
-      </c>
-      <c r="O12" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1971,28 +1932,25 @@
         <v>2.5617969468503989E-5</v>
       </c>
       <c r="I13">
-        <v>1.8796136000000001</v>
+        <v>4.8151883817384867E-6</v>
       </c>
       <c r="J13">
-        <v>4.8151883817384867E-6</v>
-      </c>
-      <c r="K13">
         <v>280.49880981000001</v>
       </c>
+      <c r="K13" s="1">
+        <v>28.3</v>
+      </c>
       <c r="L13" s="1">
-        <v>28.3</v>
+        <v>64</v>
       </c>
       <c r="M13" s="1">
-        <v>64</v>
+        <v>68.599999999999994</v>
       </c>
       <c r="N13" s="1">
-        <v>68.599999999999994</v>
-      </c>
-      <c r="O13" s="1">
         <v>20.9</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>24</v>
       </c>
@@ -2018,28 +1976,25 @@
         <v>3.3894998886125597E-6</v>
       </c>
       <c r="I14">
-        <v>14.390709094938551</v>
+        <v>1.2194326718587493E-6</v>
       </c>
       <c r="J14">
-        <v>1.2194326718587493E-6</v>
-      </c>
-      <c r="K14">
         <v>30.766447070000005</v>
       </c>
+      <c r="K14" s="1">
+        <v>27.5</v>
+      </c>
       <c r="L14" s="1">
-        <v>27.5</v>
+        <v>40</v>
       </c>
       <c r="M14" s="1">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="N14" s="1">
-        <v>205</v>
-      </c>
-      <c r="O14" s="1">
         <v>30.4</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2065,28 +2020,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.44</v>
+        <v>3.1975090880022644E-6</v>
       </c>
       <c r="J15">
-        <v>3.1975090880022644E-6</v>
-      </c>
-      <c r="K15">
         <v>96.799301149999991</v>
       </c>
+      <c r="K15" s="1">
+        <v>17.399999999999999</v>
+      </c>
       <c r="L15" s="1">
-        <v>17.399999999999999</v>
+        <v>62</v>
       </c>
       <c r="M15" s="1">
-        <v>62</v>
+        <v>124.5</v>
       </c>
       <c r="N15" s="1">
-        <v>124.5</v>
-      </c>
-      <c r="O15" s="1">
         <v>35.4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -2112,28 +2064,25 @@
         <v>3.9763393045592752E-4</v>
       </c>
       <c r="I16">
-        <v>40.895322865412439</v>
+        <v>3.5520681450935152E-6</v>
       </c>
       <c r="J16">
-        <v>3.5520681450935152E-6</v>
-      </c>
-      <c r="K16">
         <v>220.27456665</v>
       </c>
+      <c r="K16" s="1">
+        <v>15.5</v>
+      </c>
       <c r="L16" s="1">
-        <v>15.5</v>
+        <v>68</v>
       </c>
       <c r="M16" s="1">
-        <v>68</v>
+        <v>63.7</v>
       </c>
       <c r="N16" s="1">
-        <v>63.7</v>
-      </c>
-      <c r="O16" s="1">
         <v>23.3</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -2159,28 +2108,25 @@
         <v>1.6782803261316729E-4</v>
       </c>
       <c r="I17">
-        <v>20.04784843454868</v>
+        <v>6.0732688824860482E-6</v>
       </c>
       <c r="J17">
-        <v>6.0732688824860482E-6</v>
-      </c>
-      <c r="K17">
         <v>460.47332764000004</v>
       </c>
+      <c r="K17" s="1">
+        <v>15.7</v>
+      </c>
       <c r="L17" s="1">
-        <v>15.7</v>
+        <v>61</v>
       </c>
       <c r="M17" s="1">
-        <v>61</v>
+        <v>79.8</v>
       </c>
       <c r="N17" s="1">
-        <v>79.8</v>
-      </c>
-      <c r="O17" s="1">
         <v>29.7</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -2206,28 +2152,25 @@
         <v>1.3022512016522964E-6</v>
       </c>
       <c r="I18">
-        <v>18.340510789427196</v>
+        <v>7.9613174048161573E-6</v>
       </c>
       <c r="J18">
-        <v>7.9613174048161573E-6</v>
-      </c>
-      <c r="K18">
         <v>465.92932129000002</v>
       </c>
+      <c r="K18" s="1">
+        <v>23.8</v>
+      </c>
       <c r="L18" s="1">
-        <v>23.8</v>
+        <v>61</v>
       </c>
       <c r="M18" s="1">
-        <v>61</v>
+        <v>101.3</v>
       </c>
       <c r="N18" s="1">
-        <v>101.3</v>
-      </c>
-      <c r="O18" s="1">
         <v>20.9</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2253,28 +2196,25 @@
         <v>5.4635992797500766E-4</v>
       </c>
       <c r="I19">
-        <v>1839.758040765623</v>
+        <v>8.7171866085400706E-6</v>
       </c>
       <c r="J19">
-        <v>8.7171866085400706E-6</v>
-      </c>
-      <c r="K19">
         <v>928.79931641000007</v>
       </c>
+      <c r="K19" s="1">
+        <v>19.7</v>
+      </c>
       <c r="L19" s="1">
-        <v>19.7</v>
+        <v>79</v>
       </c>
       <c r="M19" s="1">
-        <v>79</v>
+        <v>29.9</v>
       </c>
       <c r="N19" s="1">
-        <v>29.9</v>
-      </c>
-      <c r="O19" s="1">
         <v>11.8</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>36</v>
       </c>
@@ -2300,28 +2240,25 @@
         <v>8.0427227144917724E-5</v>
       </c>
       <c r="I20">
-        <v>67.927179736691471</v>
+        <v>9.7037206287682722E-6</v>
       </c>
       <c r="J20">
-        <v>9.7037206287682722E-6</v>
-      </c>
-      <c r="K20">
         <v>663.71508788999995</v>
       </c>
+      <c r="K20" s="1">
+        <v>10.199999999999999</v>
+      </c>
       <c r="L20" s="1">
-        <v>10.199999999999999</v>
+        <v>66</v>
       </c>
       <c r="M20" s="1">
-        <v>66</v>
+        <v>61.8</v>
       </c>
       <c r="N20" s="1">
-        <v>61.8</v>
-      </c>
-      <c r="O20" s="1">
         <v>20.8</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>38</v>
       </c>
@@ -2347,28 +2284,25 @@
         <v>2.7065087056328793E-6</v>
       </c>
       <c r="I21">
-        <v>15.745810234660214</v>
+        <v>7.7483949958820287E-7</v>
       </c>
       <c r="J21">
-        <v>7.7483949958820287E-7</v>
-      </c>
-      <c r="K21">
         <v>44.40349196999999</v>
       </c>
+      <c r="K21" s="1">
+        <v>30.5</v>
+      </c>
       <c r="L21" s="1">
-        <v>30.5</v>
+        <v>40</v>
       </c>
       <c r="M21" s="1">
-        <v>40</v>
+        <v>206.2</v>
       </c>
       <c r="N21" s="1">
-        <v>206.2</v>
-      </c>
-      <c r="O21" s="1">
         <v>36.299999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -2394,28 +2328,25 @@
         <v>8.6725928806511588E-8</v>
       </c>
       <c r="I22">
-        <v>3.012334881640566</v>
+        <v>2.6124754048653124E-7</v>
       </c>
       <c r="J22">
-        <v>2.6124754048653124E-7</v>
-      </c>
-      <c r="K22">
         <v>23.500432969999999</v>
       </c>
+      <c r="K22" s="1">
+        <v>34.700000000000003</v>
+      </c>
       <c r="L22" s="1">
-        <v>34.700000000000003</v>
+        <v>42</v>
       </c>
       <c r="M22" s="1">
-        <v>42</v>
+        <v>179.9</v>
       </c>
       <c r="N22" s="1">
-        <v>179.9</v>
-      </c>
-      <c r="O22" s="1">
         <v>35.6</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -2441,28 +2372,25 @@
         <v>6.7280556282912915E-5</v>
       </c>
       <c r="I23">
-        <v>1.9818457407061463</v>
+        <v>3.6037752405846248E-6</v>
       </c>
       <c r="J23">
-        <v>3.6037752405846248E-6</v>
-      </c>
-      <c r="K23">
         <v>167.58961487000002</v>
       </c>
+      <c r="K23" s="1">
+        <v>25</v>
+      </c>
       <c r="L23" s="1">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="M23" s="1">
-        <v>69</v>
+        <v>99.5</v>
       </c>
       <c r="N23" s="1">
-        <v>99.5</v>
-      </c>
-      <c r="O23" s="1">
         <v>31.6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>44</v>
       </c>
@@ -2488,28 +2416,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.089389786968415</v>
+        <v>1.6431213887647522E-6</v>
       </c>
       <c r="J24">
-        <v>1.6431213887647522E-6</v>
-      </c>
-      <c r="K24">
         <v>82.075866700000006</v>
       </c>
+      <c r="K24" s="1">
+        <v>17.8</v>
+      </c>
       <c r="L24" s="1">
-        <v>17.8</v>
+        <v>60</v>
       </c>
       <c r="M24" s="1">
-        <v>60</v>
+        <v>149.80000000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>149.80000000000001</v>
-      </c>
-      <c r="O24" s="1">
         <v>24.9</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>46</v>
       </c>
@@ -2535,28 +2460,25 @@
         <v>1.5844561298298716E-5</v>
       </c>
       <c r="I25">
-        <v>38.76046703338902</v>
+        <v>1.4979087703932168E-6</v>
       </c>
       <c r="J25">
-        <v>1.4979087703932168E-6</v>
-      </c>
-      <c r="K25">
         <v>67.811813349999994</v>
       </c>
+      <c r="K25" s="1">
+        <v>30.1</v>
+      </c>
       <c r="L25" s="1">
-        <v>30.1</v>
+        <v>46</v>
       </c>
       <c r="M25" s="1">
-        <v>46</v>
+        <v>208.1</v>
       </c>
       <c r="N25" s="1">
-        <v>208.1</v>
-      </c>
-      <c r="O25" s="1">
         <v>65.400000000000006</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -2582,28 +2504,25 @@
         <v>2.4278930726273886E-4</v>
       </c>
       <c r="I26">
-        <v>1736.4256295199573</v>
+        <v>4.6414794198438364E-5</v>
       </c>
       <c r="J26">
-        <v>4.6414794198438364E-5</v>
-      </c>
-      <c r="K26">
         <v>4754.9477539099998</v>
       </c>
+      <c r="K26" s="1">
+        <v>5.8</v>
+      </c>
       <c r="L26" s="1">
-        <v>5.8</v>
+        <v>89</v>
       </c>
       <c r="M26" s="1">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="N26" s="1">
-        <v>7</v>
-      </c>
-      <c r="O26" s="1">
         <v>6.7</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>50</v>
       </c>
@@ -2629,28 +2548,25 @@
         <v>4.8285301164202503E-6</v>
       </c>
       <c r="I27">
-        <v>11.314951342780729</v>
+        <v>7.0954004317462996E-7</v>
       </c>
       <c r="J27">
-        <v>7.0954004317462996E-7</v>
-      </c>
-      <c r="K27">
         <v>29.730863569999997</v>
       </c>
+      <c r="K27" s="1">
+        <v>27.6</v>
+      </c>
       <c r="L27" s="1">
-        <v>27.6</v>
+        <v>28</v>
       </c>
       <c r="M27" s="1">
-        <v>28</v>
+        <v>280.10000000000002</v>
       </c>
       <c r="N27" s="1">
-        <v>280.10000000000002</v>
-      </c>
-      <c r="O27" s="1">
         <v>50.8</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
@@ -2676,28 +2592,25 @@
         <v>5.7819648391320509E-4</v>
       </c>
       <c r="I28">
-        <v>282.31815974464962</v>
+        <v>1.48964562246033E-5</v>
       </c>
       <c r="J28">
-        <v>1.48964562246033E-5</v>
-      </c>
-      <c r="K28">
         <v>1381.98620605</v>
       </c>
+      <c r="K28" s="1">
+        <v>12.5</v>
+      </c>
       <c r="L28" s="1">
-        <v>12.5</v>
+        <v>70</v>
       </c>
       <c r="M28" s="1">
-        <v>70</v>
+        <v>25.3</v>
       </c>
       <c r="N28" s="1">
-        <v>25.3</v>
-      </c>
-      <c r="O28" s="1">
         <v>23.1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -2723,28 +2636,25 @@
         <v>3.2912914453765459E-6</v>
       </c>
       <c r="I29">
-        <v>14342.90284291587</v>
+        <v>1.0003533254663263E-5</v>
       </c>
       <c r="J29">
-        <v>1.0003533254663263E-5</v>
-      </c>
-      <c r="K29">
         <v>440.82562256</v>
       </c>
+      <c r="K29" s="1">
+        <v>18.2</v>
+      </c>
       <c r="L29" s="1">
-        <v>18.2</v>
+        <v>79</v>
       </c>
       <c r="M29" s="1">
-        <v>79</v>
+        <v>112.7</v>
       </c>
       <c r="N29" s="1">
-        <v>112.7</v>
-      </c>
-      <c r="O29" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>56</v>
       </c>
@@ -2770,28 +2680,25 @@
         <v>3.4986481674022495E-4</v>
       </c>
       <c r="I30">
-        <v>323.80280810824598</v>
+        <v>6.4323875833955093E-6</v>
       </c>
       <c r="J30">
-        <v>6.4323875833955093E-6</v>
-      </c>
-      <c r="K30">
         <v>459.19757079999999</v>
       </c>
+      <c r="K30" s="1">
+        <v>18.5</v>
+      </c>
       <c r="L30" s="1">
-        <v>18.5</v>
+        <v>76</v>
       </c>
       <c r="M30" s="1">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="N30" s="1">
-        <v>37</v>
-      </c>
-      <c r="O30" s="1">
         <v>17.2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>58</v>
       </c>
@@ -2817,28 +2724,25 @@
         <v>8.2266706311384181E-6</v>
       </c>
       <c r="I31">
-        <v>1.1857286766511228</v>
+        <v>1.3935141829577735E-6</v>
       </c>
       <c r="J31">
-        <v>1.3935141829577735E-6</v>
-      </c>
-      <c r="K31">
         <v>58.760929110000006</v>
       </c>
+      <c r="K31" s="1">
+        <v>26.5</v>
+      </c>
       <c r="L31" s="1">
-        <v>26.5</v>
+        <v>52</v>
       </c>
       <c r="M31" s="1">
-        <v>52</v>
+        <v>172.4</v>
       </c>
       <c r="N31" s="1">
-        <v>172.4</v>
-      </c>
-      <c r="O31" s="1">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2864,28 +2768,25 @@
         <v>1.4496783200978941E-5</v>
       </c>
       <c r="I32">
-        <v>10.820591130734872</v>
+        <v>2.0110738939576798E-6</v>
       </c>
       <c r="J32">
-        <v>2.0110738939576798E-6</v>
-      </c>
-      <c r="K32">
         <v>49.983722689999993</v>
       </c>
+      <c r="K32" s="1">
+        <v>27.4</v>
+      </c>
       <c r="L32" s="1">
-        <v>27.4</v>
+        <v>39</v>
       </c>
       <c r="M32" s="1">
-        <v>39</v>
+        <v>130.69999999999999</v>
       </c>
       <c r="N32" s="1">
-        <v>130.69999999999999</v>
-      </c>
-      <c r="O32" s="1">
         <v>36.4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>62</v>
       </c>
@@ -2911,28 +2812,25 @@
         <v>7.1717805886843171E-5</v>
       </c>
       <c r="I33">
-        <v>61.773944173673648</v>
+        <v>1.223837496439838E-5</v>
       </c>
       <c r="J33">
-        <v>1.223837496439838E-5</v>
-      </c>
-      <c r="K33">
         <v>869.07775878999996</v>
       </c>
+      <c r="K33" s="1">
+        <v>16.7</v>
+      </c>
       <c r="L33" s="1">
+        <v>77</v>
+      </c>
+      <c r="M33" s="1">
+        <v>23.3</v>
+      </c>
+      <c r="N33" s="1">
         <v>16.7</v>
       </c>
-      <c r="M33" s="1">
-        <v>77</v>
-      </c>
-      <c r="N33" s="1">
-        <v>23.3</v>
-      </c>
-      <c r="O33" s="1">
-        <v>16.7</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -2958,28 +2856,25 @@
         <v>4.2369813904513936E-5</v>
       </c>
       <c r="I34">
-        <v>60.415553038882599</v>
+        <v>1.4627404223975697E-5</v>
       </c>
       <c r="J34">
-        <v>1.4627404223975697E-5</v>
-      </c>
-      <c r="K34">
         <v>902.13964843999997</v>
       </c>
+      <c r="K34" s="1">
+        <v>8.1</v>
+      </c>
       <c r="L34" s="1">
-        <v>8.1</v>
+        <v>71</v>
       </c>
       <c r="M34" s="1">
-        <v>71</v>
+        <v>35.5</v>
       </c>
       <c r="N34" s="1">
-        <v>35.5</v>
-      </c>
-      <c r="O34" s="1">
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>66</v>
       </c>
@@ -3005,28 +2900,25 @@
         <v>8.0293050221802928E-6</v>
       </c>
       <c r="I35">
-        <v>100</v>
+        <v>8.8234121122860371E-6</v>
       </c>
       <c r="J35">
-        <v>8.8234121122860371E-6</v>
-      </c>
-      <c r="K35">
         <v>987.62701416000016</v>
       </c>
+      <c r="K35" s="1">
+        <v>8.5</v>
+      </c>
       <c r="L35" s="1">
-        <v>8.5</v>
+        <v>83</v>
       </c>
       <c r="M35" s="1">
-        <v>83</v>
+        <v>49.5</v>
       </c>
       <c r="N35" s="1">
-        <v>49.5</v>
-      </c>
-      <c r="O35" s="1">
         <v>21.6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>68</v>
       </c>
@@ -3052,28 +2944,25 @@
         <v>1.7520820575116765E-5</v>
       </c>
       <c r="I36">
-        <v>24.564647934624428</v>
+        <v>2.0494894712069868E-5</v>
       </c>
       <c r="J36">
-        <v>2.0494894712069868E-5</v>
-      </c>
-      <c r="K36">
         <v>1731.6944580099996</v>
       </c>
+      <c r="K36" s="1">
+        <v>5.0999999999999996</v>
+      </c>
       <c r="L36" s="1">
-        <v>5.0999999999999996</v>
+        <v>78</v>
       </c>
       <c r="M36" s="1">
-        <v>78</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="N36" s="1">
-        <v>20.100000000000001</v>
-      </c>
-      <c r="O36" s="1">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>70</v>
       </c>
@@ -3099,28 +2988,25 @@
         <v>3.8917738845694255E-5</v>
       </c>
       <c r="I37">
-        <v>246.48924549488166</v>
+        <v>2.3059625202985632E-5</v>
       </c>
       <c r="J37">
-        <v>2.3059625202985632E-5</v>
-      </c>
-      <c r="K37">
         <v>1475.9151611299997</v>
       </c>
+      <c r="K37" s="1">
+        <v>5.9</v>
+      </c>
       <c r="L37" s="1">
-        <v>5.9</v>
+        <v>76</v>
       </c>
       <c r="M37" s="1">
-        <v>76</v>
+        <v>29.6</v>
       </c>
       <c r="N37" s="1">
-        <v>29.6</v>
-      </c>
-      <c r="O37" s="1">
         <v>15.6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -3146,28 +3032,25 @@
         <v>2.8920193263397009E-6</v>
       </c>
       <c r="I38">
-        <v>47.319624204093778</v>
+        <v>5.4521620602936685E-7</v>
       </c>
       <c r="J38">
-        <v>5.4521620602936685E-7</v>
-      </c>
-      <c r="K38">
         <v>19.431646350000001</v>
       </c>
+      <c r="K38" s="1">
+        <v>33.700000000000003</v>
+      </c>
       <c r="L38" s="1">
-        <v>33.700000000000003</v>
+        <v>41</v>
       </c>
       <c r="M38" s="1">
-        <v>41</v>
+        <v>163.9</v>
       </c>
       <c r="N38" s="1">
-        <v>163.9</v>
-      </c>
-      <c r="O38" s="1">
         <v>37.4</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -3193,28 +3076,25 @@
         <v>1.0793715805101183E-4</v>
       </c>
       <c r="I39">
-        <v>348.07801846390521</v>
+        <v>6.0305862107578731E-5</v>
       </c>
       <c r="J39">
-        <v>6.0305862107578731E-5</v>
-      </c>
-      <c r="K39">
         <v>5800.1513671900011</v>
       </c>
+      <c r="K39" s="1">
+        <v>4</v>
+      </c>
       <c r="L39" s="1">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="M39" s="1">
-        <v>81</v>
+        <v>13.2</v>
       </c>
       <c r="N39" s="1">
-        <v>13.2</v>
-      </c>
-      <c r="O39" s="1">
         <v>10.3</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>76</v>
       </c>
@@ -3240,28 +3120,25 @@
         <v>1.4759347672218076E-4</v>
       </c>
       <c r="I40">
-        <v>88.941298257721527</v>
+        <v>8.282116993086156E-6</v>
       </c>
       <c r="J40">
-        <v>8.282116993086156E-6</v>
-      </c>
-      <c r="K40">
         <v>433.20858764999991</v>
       </c>
+      <c r="K40" s="1">
+        <v>34.6</v>
+      </c>
       <c r="L40" s="1">
-        <v>34.6</v>
+        <v>74</v>
       </c>
       <c r="M40" s="1">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="N40" s="1">
-        <v>43</v>
-      </c>
-      <c r="O40" s="1">
         <v>13.3</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>78</v>
       </c>
@@ -3287,28 +3164,25 @@
         <v>3.6653192819450733E-4</v>
       </c>
       <c r="I41">
-        <v>107.43566499999999</v>
+        <v>6.1838256044769381E-6</v>
       </c>
       <c r="J41">
-        <v>6.1838256044769381E-6</v>
-      </c>
-      <c r="K41">
         <v>518.02960204999999</v>
       </c>
+      <c r="K41" s="1">
+        <v>21.3</v>
+      </c>
       <c r="L41" s="1">
-        <v>21.3</v>
+        <v>77</v>
       </c>
       <c r="M41" s="1">
-        <v>77</v>
+        <v>24.5</v>
       </c>
       <c r="N41" s="1">
-        <v>24.5</v>
-      </c>
-      <c r="O41" s="1">
         <v>15.5</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>80</v>
       </c>
@@ -3334,28 +3208,25 @@
         <v>5.2775192145330092E-5</v>
       </c>
       <c r="I42">
-        <v>303.17512759752105</v>
+        <v>3.02003125946473E-6</v>
       </c>
       <c r="J42">
-        <v>3.02003125946473E-6</v>
-      </c>
-      <c r="K42">
         <v>105.76845551000001</v>
       </c>
+      <c r="K42" s="1">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="L42" s="1">
-        <v>9.6999999999999993</v>
+        <v>68</v>
       </c>
       <c r="M42" s="1">
-        <v>68</v>
+        <v>108.9</v>
       </c>
       <c r="N42" s="1">
-        <v>108.9</v>
-      </c>
-      <c r="O42" s="1">
         <v>79.599999999999994</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>82</v>
       </c>
@@ -3381,28 +3252,25 @@
         <v>1.0505845619852639E-3</v>
       </c>
       <c r="I43">
-        <v>27.022639999999999</v>
+        <v>4.1872519775937272E-5</v>
       </c>
       <c r="J43">
-        <v>4.1872519775937272E-5</v>
-      </c>
-      <c r="K43">
         <v>282.49102783000001</v>
       </c>
+      <c r="K43" s="1">
+        <v>22.2</v>
+      </c>
       <c r="L43" s="1">
-        <v>22.2</v>
+        <v>76</v>
       </c>
       <c r="M43" s="1">
-        <v>76</v>
+        <v>41.9</v>
       </c>
       <c r="N43" s="1">
-        <v>41.9</v>
-      </c>
-      <c r="O43" s="1">
         <v>23.8</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -3428,28 +3296,25 @@
         <v>6.121025205349333E-5</v>
       </c>
       <c r="I44">
-        <v>11.026774945341526</v>
+        <v>8.1319478764036142E-6</v>
       </c>
       <c r="J44">
-        <v>8.1319478764036142E-6</v>
-      </c>
-      <c r="K44">
         <v>301.15005493000001</v>
       </c>
+      <c r="K44" s="1">
+        <v>24.6</v>
+      </c>
       <c r="L44" s="1">
-        <v>24.6</v>
+        <v>45</v>
       </c>
       <c r="M44" s="1">
-        <v>45</v>
+        <v>177.7</v>
       </c>
       <c r="N44" s="1">
-        <v>177.7</v>
-      </c>
-      <c r="O44" s="1">
         <v>49.1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>86</v>
       </c>
@@ -3475,28 +3340,25 @@
         <v>4.8278239564168193E-5</v>
       </c>
       <c r="I45">
-        <v>31.386949981236025</v>
+        <v>2.367666703722933E-5</v>
       </c>
       <c r="J45">
-        <v>2.367666703722933E-5</v>
-      </c>
-      <c r="K45">
         <v>1300.48168945</v>
       </c>
+      <c r="K45" s="1">
+        <v>6.1</v>
+      </c>
       <c r="L45" s="1">
-        <v>6.1</v>
+        <v>75</v>
       </c>
       <c r="M45" s="1">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="N45" s="1">
-        <v>25</v>
-      </c>
-      <c r="O45" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>88</v>
       </c>
@@ -3522,28 +3384,25 @@
         <v>7.49042140588242E-5</v>
       </c>
       <c r="I46">
-        <v>4.4054058024429388</v>
+        <v>3.8370169679322335E-6</v>
       </c>
       <c r="J46">
-        <v>3.8370169679322335E-6</v>
-      </c>
-      <c r="K46">
         <v>224.73677063000005</v>
       </c>
+      <c r="K46" s="1">
+        <v>26.9</v>
+      </c>
       <c r="L46" s="1">
-        <v>26.9</v>
+        <v>63</v>
       </c>
       <c r="M46" s="1">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="N46" s="1">
-        <v>137</v>
-      </c>
-      <c r="O46" s="1">
         <v>16.2</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>90</v>
       </c>
@@ -3569,28 +3428,25 @@
         <v>6.3259105360823739E-6</v>
       </c>
       <c r="I47">
-        <v>96.107662398174881</v>
+        <v>8.5750137399557442E-7</v>
       </c>
       <c r="J47">
-        <v>8.5750137399557442E-7</v>
-      </c>
-      <c r="K47">
         <v>25.261953349999999</v>
       </c>
+      <c r="K47" s="1">
+        <v>26.7</v>
+      </c>
       <c r="L47" s="1">
-        <v>26.7</v>
+        <v>39</v>
       </c>
       <c r="M47" s="1">
-        <v>39</v>
+        <v>144.4</v>
       </c>
       <c r="N47" s="1">
-        <v>144.4</v>
-      </c>
-      <c r="O47" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>92</v>
       </c>
@@ -3616,28 +3472,25 @@
         <v>2.2473046389986012E-6</v>
       </c>
       <c r="I48">
-        <v>5.5355489724125153</v>
+        <v>6.2200324425532924E-6</v>
       </c>
       <c r="J48">
-        <v>6.2200324425532924E-6</v>
-      </c>
-      <c r="K48">
         <v>188.4143219</v>
       </c>
+      <c r="K48" s="1">
+        <v>9.6</v>
+      </c>
       <c r="L48" s="1">
-        <v>9.6</v>
+        <v>64</v>
       </c>
       <c r="M48" s="1">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="N48" s="1">
-        <v>99</v>
-      </c>
-      <c r="O48" s="1">
         <v>10.5</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -3663,28 +3516,25 @@
         <v>6.0555020200973976E-5</v>
       </c>
       <c r="I49">
-        <v>268.76120136470547</v>
+        <v>4.8581611874262013E-5</v>
       </c>
       <c r="J49">
-        <v>4.8581611874262013E-5</v>
-      </c>
-      <c r="K49">
         <v>4205.7426757800004</v>
       </c>
+      <c r="K49" s="1">
+        <v>4.7</v>
+      </c>
       <c r="L49" s="1">
-        <v>4.7</v>
+        <v>78</v>
       </c>
       <c r="M49" s="1">
-        <v>78</v>
+        <v>7.2</v>
       </c>
       <c r="N49" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="O49" s="1">
         <v>6.5</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -3710,28 +3560,25 @@
         <v>4.6692961160856017E-4</v>
       </c>
       <c r="I50">
-        <v>2715.5182742274469</v>
+        <v>4.1693988790272244E-5</v>
       </c>
       <c r="J50">
-        <v>4.1693988790272244E-5</v>
-      </c>
-      <c r="K50">
         <v>4379.7270507800004</v>
       </c>
+      <c r="K50" s="1">
+        <v>5.5</v>
+      </c>
       <c r="L50" s="1">
-        <v>5.5</v>
+        <v>78</v>
       </c>
       <c r="M50" s="1">
-        <v>78</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="N50" s="1">
-        <v>9.6999999999999993</v>
-      </c>
-      <c r="O50" s="1">
         <v>12.4</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -3757,28 +3604,25 @@
         <v>2.4394981446005623E-5</v>
       </c>
       <c r="I51">
-        <v>16.657960228089244</v>
+        <v>7.6673703904252207E-6</v>
       </c>
       <c r="J51">
-        <v>7.6673703904252207E-6</v>
-      </c>
-      <c r="K51">
         <v>204.49224853999999</v>
       </c>
+      <c r="K51" s="1">
+        <v>23.2</v>
+      </c>
       <c r="L51" s="1">
-        <v>23.2</v>
+        <v>49</v>
       </c>
       <c r="M51" s="1">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="N51" s="1">
-        <v>76</v>
-      </c>
-      <c r="O51" s="1">
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>100</v>
       </c>
@@ -3804,28 +3648,25 @@
         <v>3.8335457401639735E-5</v>
       </c>
       <c r="I52">
-        <v>1.7638190476983797</v>
+        <v>7.5129788852491116E-7</v>
       </c>
       <c r="J52">
-        <v>7.5129788852491116E-7</v>
-      </c>
-      <c r="K52">
         <v>23.272325520000003</v>
       </c>
+      <c r="K52" s="1">
+        <v>29.7</v>
+      </c>
       <c r="L52" s="1">
-        <v>29.7</v>
+        <v>44</v>
       </c>
       <c r="M52" s="1">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="N52" s="1">
-        <v>237</v>
-      </c>
-      <c r="O52" s="1">
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>102</v>
       </c>
@@ -3851,28 +3692,25 @@
         <v>4.7538482401504015E-6</v>
       </c>
       <c r="I53">
-        <v>17.74319577019978</v>
+        <v>4.4393926308846462E-6</v>
       </c>
       <c r="J53">
-        <v>4.4393926308846462E-6</v>
-      </c>
-      <c r="K53">
         <v>293.05358887</v>
       </c>
+      <c r="K53" s="1">
+        <v>15.3</v>
+      </c>
       <c r="L53" s="1">
-        <v>15.3</v>
+        <v>66</v>
       </c>
       <c r="M53" s="1">
-        <v>66</v>
+        <v>101.8</v>
       </c>
       <c r="N53" s="1">
-        <v>101.8</v>
-      </c>
-      <c r="O53" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>104</v>
       </c>
@@ -3898,28 +3736,25 @@
         <v>1.1111504111388231E-4</v>
       </c>
       <c r="I54">
-        <v>3845.6300308235236</v>
+        <v>4.6046049459454347E-5</v>
       </c>
       <c r="J54">
-        <v>4.6046049459454347E-5</v>
-      </c>
-      <c r="K54">
         <v>5033.4521484400011</v>
       </c>
+      <c r="K54" s="1">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="L54" s="1">
-        <v>4.0999999999999996</v>
+        <v>83</v>
       </c>
       <c r="M54" s="1">
-        <v>83</v>
+        <v>16</v>
       </c>
       <c r="N54" s="1">
-        <v>16</v>
-      </c>
-      <c r="O54" s="1">
         <v>11.9</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -3945,28 +3780,25 @@
         <v>8.8763646670978604E-6</v>
       </c>
       <c r="I55">
-        <v>66.983634223942957</v>
+        <v>2.2021154225896826E-6</v>
       </c>
       <c r="J55">
-        <v>2.2021154225896826E-6</v>
-      </c>
-      <c r="K55">
         <v>66.749412540000009</v>
       </c>
+      <c r="K55" s="1">
+        <v>24.9</v>
+      </c>
       <c r="L55" s="1">
-        <v>24.9</v>
+        <v>47</v>
       </c>
       <c r="M55" s="1">
-        <v>47</v>
+        <v>203.8</v>
       </c>
       <c r="N55" s="1">
-        <v>203.8</v>
-      </c>
-      <c r="O55" s="1">
         <v>31.1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -3992,28 +3824,25 @@
         <v>2.3201519422631622E-5</v>
       </c>
       <c r="I56">
-        <v>209.85276146868125</v>
+        <v>2.0036637535425879E-5</v>
       </c>
       <c r="J56">
-        <v>2.0036637535425879E-5</v>
-      </c>
-      <c r="K56">
         <v>1516.58776855</v>
       </c>
+      <c r="K56" s="1">
+        <v>9.1999999999999993</v>
+      </c>
       <c r="L56" s="1">
-        <v>9.1999999999999993</v>
+        <v>75</v>
       </c>
       <c r="M56" s="1">
-        <v>75</v>
+        <v>27.6</v>
       </c>
       <c r="N56" s="1">
-        <v>27.6</v>
-      </c>
-      <c r="O56" s="1">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>110</v>
       </c>
@@ -4039,28 +3868,25 @@
         <v>0</v>
       </c>
       <c r="I57">
-        <v>1.2281703703703704</v>
+        <v>1.0965611063823596E-5</v>
       </c>
       <c r="J57">
-        <v>1.0965611063823596E-5</v>
-      </c>
-      <c r="K57">
         <v>497.23605346999994</v>
       </c>
+      <c r="K57" s="1">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="L57" s="1">
-        <v>9.3000000000000007</v>
+        <v>72</v>
       </c>
       <c r="M57" s="1">
-        <v>72</v>
+        <v>45.3</v>
       </c>
       <c r="N57" s="1">
-        <v>45.3</v>
-      </c>
-      <c r="O57" s="1">
         <v>21.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>112</v>
       </c>
@@ -4086,28 +3912,25 @@
         <v>1.4958926087889322E-4</v>
       </c>
       <c r="I58">
-        <v>76.710385879662724</v>
+        <v>4.3631368537921803E-6</v>
       </c>
       <c r="J58">
-        <v>4.3631368537921803E-6</v>
-      </c>
-      <c r="K58">
         <v>259.93502808000005</v>
       </c>
+      <c r="K58" s="1">
+        <v>16.600000000000001</v>
+      </c>
       <c r="L58" s="1">
-        <v>16.600000000000001</v>
+        <v>55</v>
       </c>
       <c r="M58" s="1">
-        <v>55</v>
+        <v>73.8</v>
       </c>
       <c r="N58" s="1">
-        <v>73.8</v>
-      </c>
-      <c r="O58" s="1">
         <v>24.2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>114</v>
       </c>
@@ -4133,28 +3956,25 @@
         <v>4.4631510504143448E-6</v>
       </c>
       <c r="I59">
-        <v>13.590281808692785</v>
+        <v>1.0641312373665643E-6</v>
       </c>
       <c r="J59">
-        <v>1.0641312373665643E-6</v>
-      </c>
-      <c r="K59">
         <v>33.720111850000002</v>
       </c>
+      <c r="K59" s="1">
+        <v>28.2</v>
+      </c>
       <c r="L59" s="1">
-        <v>28.2</v>
+        <v>37</v>
       </c>
       <c r="M59" s="1">
-        <v>37</v>
+        <v>243.3</v>
       </c>
       <c r="N59" s="1">
-        <v>243.3</v>
-      </c>
-      <c r="O59" s="1">
         <v>22.2</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -4180,28 +4000,25 @@
         <v>1.7179295097081238E-5</v>
       </c>
       <c r="I60">
-        <v>1.340389410760034</v>
+        <v>6.9778621916513521E-7</v>
       </c>
       <c r="J60">
-        <v>6.9778621916513521E-7</v>
-      </c>
-      <c r="K60">
         <v>52.359409329999991</v>
       </c>
+      <c r="K60" s="1">
+        <v>31.1</v>
+      </c>
       <c r="L60" s="1">
-        <v>31.1</v>
+        <v>40</v>
       </c>
       <c r="M60" s="1">
-        <v>40</v>
+        <v>214.7</v>
       </c>
       <c r="N60" s="1">
-        <v>214.7</v>
-      </c>
-      <c r="O60" s="1">
         <v>26.5</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>118</v>
       </c>
@@ -4227,28 +4044,25 @@
         <v>3.9602695538309217E-5</v>
       </c>
       <c r="I61">
-        <v>4.2804436450839329</v>
+        <v>5.4682937562951457E-6</v>
       </c>
       <c r="J61">
-        <v>5.4682937562951457E-6</v>
-      </c>
-      <c r="K61">
         <v>230.52728271000001</v>
       </c>
+      <c r="K61" s="1">
+        <v>24.6</v>
+      </c>
       <c r="L61" s="1">
-        <v>24.6</v>
+        <v>72</v>
       </c>
       <c r="M61" s="1">
-        <v>72</v>
+        <v>107.8</v>
       </c>
       <c r="N61" s="1">
-        <v>107.8</v>
-      </c>
-      <c r="O61" s="1">
         <v>21.6</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>120</v>
       </c>
@@ -4274,28 +4088,25 @@
         <v>1.7268419262444573E-4</v>
       </c>
       <c r="I62">
-        <v>25.095395475039272</v>
+        <v>2.5749127190720891E-6</v>
       </c>
       <c r="J62">
-        <v>2.5749127190720891E-6</v>
-      </c>
-      <c r="K62">
         <v>195.93574524000002</v>
       </c>
+      <c r="K62" s="1">
+        <v>16.7</v>
+      </c>
       <c r="L62" s="1">
-        <v>16.7</v>
+        <v>65</v>
       </c>
       <c r="M62" s="1">
-        <v>65</v>
+        <v>60.7</v>
       </c>
       <c r="N62" s="1">
-        <v>60.7</v>
-      </c>
-      <c r="O62" s="1">
         <v>21.5</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>122</v>
       </c>
@@ -4321,28 +4132,25 @@
         <v>6.3399100434913703E-4</v>
       </c>
       <c r="I63">
-        <v>160.96715750361247</v>
+        <v>1.6620802907645112E-4</v>
       </c>
       <c r="J63">
-        <v>1.6620802907645112E-4</v>
-      </c>
-      <c r="K63">
         <v>981.42303467000022</v>
       </c>
+      <c r="K63" s="1">
+        <v>7.8</v>
+      </c>
       <c r="L63" s="1">
-        <v>7.8</v>
+        <v>74</v>
       </c>
       <c r="M63" s="1">
-        <v>74</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="N63" s="1">
-        <v>38.799999999999997</v>
-      </c>
-      <c r="O63" s="1">
         <v>16.3</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>124</v>
       </c>
@@ -4368,28 +4176,25 @@
         <v>2.9495305822078417E-5</v>
       </c>
       <c r="I64">
-        <v>24.18803573878461</v>
+        <v>7.1343351135081445E-5</v>
       </c>
       <c r="J64">
-        <v>7.1343351135081445E-5</v>
-      </c>
-      <c r="K64">
         <v>6086.3115234400011</v>
       </c>
+      <c r="K64" s="1">
+        <v>6.6</v>
+      </c>
       <c r="L64" s="1">
-        <v>6.6</v>
+        <v>84</v>
       </c>
       <c r="M64" s="1">
-        <v>84</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="N64" s="1">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="O64" s="1">
         <v>5.9</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>126</v>
       </c>
@@ -4415,28 +4220,25 @@
         <v>4.3507192246995364E-5</v>
       </c>
       <c r="I65">
-        <v>2875.1423148118479</v>
+        <v>2.1041458969535286E-6</v>
       </c>
       <c r="J65">
-        <v>2.1041458969535286E-6</v>
-      </c>
-      <c r="K65">
         <v>69.293098450000002</v>
       </c>
+      <c r="K65" s="1">
+        <v>22.6</v>
+      </c>
       <c r="L65" s="1">
-        <v>22.6</v>
+        <v>55</v>
       </c>
       <c r="M65" s="1">
-        <v>55</v>
+        <v>184.3</v>
       </c>
       <c r="N65" s="1">
-        <v>184.3</v>
-      </c>
-      <c r="O65" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>128</v>
       </c>
@@ -4462,28 +4264,25 @@
         <v>2.5341286398117736E-5</v>
       </c>
       <c r="I66">
-        <v>1119.1907807527959</v>
+        <v>4.1355692780970543E-6</v>
       </c>
       <c r="J66">
-        <v>4.1355692780970543E-6</v>
-      </c>
-      <c r="K66">
         <v>114.97178650000001</v>
       </c>
+      <c r="K66" s="1">
+        <v>12.2</v>
+      </c>
       <c r="L66" s="1">
-        <v>12.2</v>
+        <v>57</v>
       </c>
       <c r="M66" s="1">
-        <v>57</v>
+        <v>112.4</v>
       </c>
       <c r="N66" s="1">
-        <v>112.4</v>
-      </c>
-      <c r="O66" s="1">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -4509,28 +4308,25 @@
         <v>2.5208079422829659E-4</v>
       </c>
       <c r="I67">
-        <v>454</v>
+        <v>5.4755600487845868E-6</v>
       </c>
       <c r="J67">
-        <v>5.4755600487845868E-6</v>
-      </c>
-      <c r="K67">
         <v>475.47994994999999</v>
       </c>
+      <c r="K67" s="1">
+        <v>20.5</v>
+      </c>
       <c r="L67" s="1">
-        <v>20.5</v>
+        <v>72</v>
       </c>
       <c r="M67" s="1">
-        <v>72</v>
+        <v>50.9</v>
       </c>
       <c r="N67" s="1">
-        <v>50.9</v>
-      </c>
-      <c r="O67" s="1">
         <v>34.4</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -4556,28 +4352,25 @@
         <v>1.6779535499414662E-4</v>
       </c>
       <c r="I68">
-        <v>234.09404293891706</v>
+        <v>5.9551081014176156E-6</v>
       </c>
       <c r="J68">
-        <v>5.9551081014176156E-6</v>
-      </c>
-      <c r="K68">
         <v>210.31370543999998</v>
       </c>
+      <c r="K68" s="1">
+        <v>20.7</v>
+      </c>
       <c r="L68" s="1">
-        <v>20.7</v>
+        <v>61</v>
       </c>
       <c r="M68" s="1">
-        <v>61</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="N68" s="1">
-        <v>75.099999999999994</v>
-      </c>
-      <c r="O68" s="1">
         <v>60.1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -4603,28 +4396,25 @@
         <v>3.6395304206985848E-4</v>
       </c>
       <c r="I69">
-        <v>388.69871134815622</v>
+        <v>7.9610623772535338E-5</v>
       </c>
       <c r="J69">
-        <v>7.9610623772535338E-5</v>
-      </c>
-      <c r="K69">
         <v>4976.8623046900011</v>
       </c>
+      <c r="K69" s="1">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="L69" s="1">
-        <v>4.0999999999999996</v>
+        <v>76</v>
       </c>
       <c r="M69" s="1">
-        <v>76</v>
+        <v>11.9</v>
       </c>
       <c r="N69" s="1">
-        <v>11.9</v>
-      </c>
-      <c r="O69" s="1">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>136</v>
       </c>
@@ -4650,28 +4440,25 @@
         <v>9.9655221106060267E-5</v>
       </c>
       <c r="I70">
-        <v>395.09866612161557</v>
+        <v>4.637649579630045E-5</v>
       </c>
       <c r="J70">
-        <v>4.637649579630045E-5</v>
-      </c>
-      <c r="K70">
         <v>3144.6262207</v>
       </c>
+      <c r="K70" s="1">
+        <v>4.2</v>
+      </c>
       <c r="L70" s="1">
-        <v>4.2</v>
+        <v>82</v>
       </c>
       <c r="M70" s="1">
-        <v>82</v>
+        <v>15.4</v>
       </c>
       <c r="N70" s="1">
-        <v>15.4</v>
-      </c>
-      <c r="O70" s="1">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -4697,28 +4484,25 @@
         <v>5.8538309074740956E-4</v>
       </c>
       <c r="I71">
-        <v>2001.2443920415653</v>
+        <v>3.3051054522618482E-5</v>
       </c>
       <c r="J71">
-        <v>3.3051054522618482E-5</v>
-      </c>
-      <c r="K71">
         <v>2840.1306152299999</v>
       </c>
+      <c r="K71" s="1">
+        <v>5.6</v>
+      </c>
       <c r="L71" s="1">
-        <v>5.6</v>
+        <v>82</v>
       </c>
       <c r="M71" s="1">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="N71" s="1">
-        <v>15</v>
-      </c>
-      <c r="O71" s="1">
         <v>15.7</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -4744,28 +4528,25 @@
         <v>5.4268984902029219E-6</v>
       </c>
       <c r="I72">
-        <v>16.458071067817549</v>
+        <v>5.5822675643494659E-6</v>
       </c>
       <c r="J72">
-        <v>5.5822675643494659E-6</v>
-      </c>
-      <c r="K72">
         <v>307.19604491999996</v>
       </c>
+      <c r="K72" s="1">
+        <v>13.6</v>
+      </c>
       <c r="L72" s="1">
+        <v>65</v>
+      </c>
+      <c r="M72" s="1">
+        <v>25.4</v>
+      </c>
+      <c r="N72" s="1">
         <v>13.6</v>
       </c>
-      <c r="M72" s="1">
-        <v>65</v>
-      </c>
-      <c r="N72" s="1">
-        <v>25.4</v>
-      </c>
-      <c r="O72" s="1">
-        <v>13.6</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -4791,28 +4572,25 @@
         <v>9.5301682995402691E-6</v>
       </c>
       <c r="I73">
-        <v>5081.7695423797686</v>
+        <v>4.0057997517251389E-5</v>
       </c>
       <c r="J73">
-        <v>4.0057997517251389E-5</v>
-      </c>
-      <c r="K73">
         <v>4168.9863281300004</v>
       </c>
+      <c r="K73" s="1">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="L73" s="1">
-        <v>4.0999999999999996</v>
+        <v>83</v>
       </c>
       <c r="M73" s="1">
-        <v>83</v>
+        <v>11.9</v>
       </c>
       <c r="N73" s="1">
-        <v>11.9</v>
-      </c>
-      <c r="O73" s="1">
         <v>11.8</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -4838,28 +4616,25 @@
         <v>1.3859057542509937E-6</v>
       </c>
       <c r="I74">
-        <v>43.743661971830988</v>
+        <v>4.3303280599122097E-6</v>
       </c>
       <c r="J74">
-        <v>4.3303280599122097E-6</v>
-      </c>
-      <c r="K74">
         <v>340.66180420000006</v>
       </c>
+      <c r="K74" s="1">
+        <v>24.4</v>
+      </c>
       <c r="L74" s="1">
-        <v>24.4</v>
+        <v>76</v>
       </c>
       <c r="M74" s="1">
-        <v>76</v>
+        <v>51.2</v>
       </c>
       <c r="N74" s="1">
-        <v>51.2</v>
-      </c>
-      <c r="O74" s="1">
         <v>31.7</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -4885,28 +4660,25 @@
         <v>9.6003391221419717E-5</v>
       </c>
       <c r="I75">
-        <v>180.16174118014678</v>
+        <v>9.7114756438235786E-6</v>
       </c>
       <c r="J75">
-        <v>9.7114756438235786E-6</v>
-      </c>
-      <c r="K75">
         <v>279.64532470999995</v>
       </c>
+      <c r="K75" s="1">
+        <v>17.600000000000001</v>
+      </c>
       <c r="L75" s="1">
-        <v>17.600000000000001</v>
+        <v>76</v>
       </c>
       <c r="M75" s="1">
-        <v>76</v>
+        <v>62.7</v>
       </c>
       <c r="N75" s="1">
-        <v>62.7</v>
-      </c>
-      <c r="O75" s="1">
         <v>14.5</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -4932,28 +4704,25 @@
         <v>1.0651659594186605E-5</v>
       </c>
       <c r="I76">
-        <v>95.503088538091987</v>
+        <v>1.8165471237521793E-6</v>
       </c>
       <c r="J76">
-        <v>1.8165471237521793E-6</v>
-      </c>
-      <c r="K76">
         <v>76.610321040000002</v>
       </c>
+      <c r="K76" s="1">
+        <v>27.8</v>
+      </c>
       <c r="L76" s="1">
-        <v>27.8</v>
+        <v>55</v>
       </c>
       <c r="M76" s="1">
-        <v>55</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="N76" s="1">
-        <v>78.099999999999994</v>
-      </c>
-      <c r="O76" s="1">
         <v>25.8</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -4979,28 +4748,25 @@
         <v>1.2336356097119211E-4</v>
       </c>
       <c r="I77">
-        <v>134.76119894598156</v>
+        <v>3.2032025785594499E-5</v>
       </c>
       <c r="J77">
-        <v>3.2032025785594499E-5</v>
-      </c>
-      <c r="K77">
         <v>1529.0776367199996</v>
       </c>
+      <c r="K77" s="1">
+        <v>17.600000000000001</v>
+      </c>
       <c r="L77" s="1">
-        <v>17.600000000000001</v>
+        <v>76</v>
       </c>
       <c r="M77" s="1">
-        <v>76</v>
+        <v>140.19999999999999</v>
       </c>
       <c r="N77" s="1">
-        <v>140.19999999999999</v>
-      </c>
-      <c r="O77" s="1">
         <v>58.9</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>151</v>
       </c>
@@ -5026,28 +4792,25 @@
         <v>1.6490407897564954E-4</v>
       </c>
       <c r="I78">
-        <v>8.4546196078179534</v>
+        <v>1.3177705666509328E-6</v>
       </c>
       <c r="J78">
-        <v>1.3177705666509328E-6</v>
-      </c>
-      <c r="K78">
         <v>78.822837829999997</v>
       </c>
+      <c r="K78" s="1">
+        <v>15.4</v>
+      </c>
       <c r="L78" s="1">
-        <v>15.4</v>
+        <v>70</v>
       </c>
       <c r="M78" s="1">
-        <v>70</v>
+        <v>103.8</v>
       </c>
       <c r="N78" s="1">
-        <v>103.8</v>
-      </c>
-      <c r="O78" s="1">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>153</v>
       </c>
@@ -5073,28 +4836,25 @@
         <v>1.7307026652821047E-4</v>
       </c>
       <c r="I79">
-        <v>34.117202555066612</v>
+        <v>1.7892949513340369E-4</v>
       </c>
       <c r="J79">
-        <v>1.7892949513340369E-4</v>
-      </c>
-      <c r="K79">
         <v>930.35235596000007</v>
       </c>
+      <c r="K79" s="1">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="L79" s="1">
-        <v>9.3000000000000007</v>
+        <v>71</v>
       </c>
       <c r="M79" s="1">
-        <v>71</v>
+        <v>110.7</v>
       </c>
       <c r="N79" s="1">
-        <v>110.7</v>
-      </c>
-      <c r="O79" s="1">
         <v>14.4</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>155</v>
       </c>
@@ -5120,28 +4880,25 @@
         <v>2.0129209101494827E-5</v>
       </c>
       <c r="I80">
-        <v>53.367042272172462</v>
+        <v>7.7843213987309649E-6</v>
       </c>
       <c r="J80">
-        <v>7.7843213987309649E-6</v>
-      </c>
-      <c r="K80">
         <v>719.44348145000015</v>
       </c>
+      <c r="K80" s="1">
+        <v>18.100000000000001</v>
+      </c>
       <c r="L80" s="1">
-        <v>18.100000000000001</v>
+        <v>73</v>
       </c>
       <c r="M80" s="1">
-        <v>73</v>
+        <v>41.3</v>
       </c>
       <c r="N80" s="1">
-        <v>41.3</v>
-      </c>
-      <c r="O80" s="1">
         <v>30.7</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>157</v>
       </c>
@@ -5167,28 +4924,25 @@
         <v>1.4115873440842962E-5</v>
       </c>
       <c r="I81">
-        <v>2.46007244362842</v>
+        <v>1.1575357089854687E-6</v>
       </c>
       <c r="J81">
-        <v>1.1575357089854687E-6</v>
-      </c>
-      <c r="K81">
         <v>104.55279541</v>
       </c>
+      <c r="K81" s="1">
+        <v>28.9</v>
+      </c>
       <c r="L81" s="1">
-        <v>28.9</v>
+        <v>48</v>
       </c>
       <c r="M81" s="1">
-        <v>48</v>
+        <v>51.4</v>
       </c>
       <c r="N81" s="1">
-        <v>51.4</v>
-      </c>
-      <c r="O81" s="1">
         <v>28.1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -5214,28 +4968,25 @@
         <v>1.6608018756529279E-5</v>
       </c>
       <c r="I82">
-        <v>3.0705180999999997</v>
+        <v>6.2189295362271521E-7</v>
       </c>
       <c r="J82">
-        <v>6.2189295362271521E-7</v>
-      </c>
-      <c r="K82">
         <v>56.599029539999989</v>
       </c>
+      <c r="K82" s="1">
+        <v>35.9</v>
+      </c>
       <c r="L82" s="1">
-        <v>35.9</v>
+        <v>39</v>
       </c>
       <c r="M82" s="1">
-        <v>39</v>
+        <v>177.6</v>
       </c>
       <c r="N82" s="1">
-        <v>177.6</v>
-      </c>
-      <c r="O82" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>161</v>
       </c>
@@ -5261,28 +5012,25 @@
         <v>3.0801219438395933E-5</v>
       </c>
       <c r="I83">
-        <v>54.219315600085402</v>
+        <v>1.9647306324680872E-5</v>
       </c>
       <c r="J83">
-        <v>1.9647306324680872E-5</v>
-      </c>
-      <c r="K83">
         <v>1078.1791992200001</v>
       </c>
+      <c r="K83" s="1">
+        <v>8</v>
+      </c>
       <c r="L83" s="1">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="M83" s="1">
-        <v>73</v>
+        <v>170.2</v>
       </c>
       <c r="N83" s="1">
-        <v>170.2</v>
-      </c>
-      <c r="O83" s="1">
         <v>12.3</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>163</v>
       </c>
@@ -5308,28 +5056,25 @@
         <v>2.0138697156221073E-3</v>
       </c>
       <c r="I84">
-        <v>71.104919108141061</v>
+        <v>1.1548068001906852E-3</v>
       </c>
       <c r="J84">
-        <v>1.1548068001906852E-3</v>
-      </c>
-      <c r="K84">
         <v>5782.6284179699996</v>
       </c>
+      <c r="K84" s="1">
+        <v>6.3</v>
+      </c>
       <c r="L84" s="1">
-        <v>6.3</v>
+        <v>83</v>
       </c>
       <c r="M84" s="1">
-        <v>83</v>
+        <v>34</v>
       </c>
       <c r="N84" s="1">
-        <v>34</v>
-      </c>
-      <c r="O84" s="1">
         <v>10.4</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>165</v>
       </c>
@@ -5355,28 +5100,25 @@
         <v>6.6000956791398339E-6</v>
       </c>
       <c r="I85">
-        <v>14.08390635661797</v>
+        <v>5.2221982859395675E-7</v>
       </c>
       <c r="J85">
-        <v>5.2221982859395675E-7</v>
-      </c>
-      <c r="K85">
         <v>24.670837399999996</v>
       </c>
+      <c r="K85" s="1">
+        <v>28.6</v>
+      </c>
       <c r="L85" s="1">
-        <v>28.6</v>
+        <v>28</v>
       </c>
       <c r="M85" s="1">
-        <v>28</v>
+        <v>11.6</v>
       </c>
       <c r="N85" s="1">
-        <v>11.6</v>
-      </c>
-      <c r="O85" s="1">
         <v>22.5</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>167</v>
       </c>
@@ -5402,28 +5144,25 @@
         <v>9.1256798832814806E-6</v>
       </c>
       <c r="I86">
-        <v>7.6667044270091464</v>
+        <v>4.1155229623895553E-7</v>
       </c>
       <c r="J86">
-        <v>4.1155229623895553E-7</v>
-      </c>
-      <c r="K86">
         <v>32.259384160000003</v>
       </c>
+      <c r="K86" s="1">
+        <v>31</v>
+      </c>
       <c r="L86" s="1">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M86" s="1">
-        <v>46</v>
+        <v>159.6</v>
       </c>
       <c r="N86" s="1">
-        <v>159.6</v>
-      </c>
-      <c r="O86" s="1">
         <v>21.9</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>169</v>
       </c>
@@ -5449,28 +5188,25 @@
         <v>3.9123889049783709E-6</v>
       </c>
       <c r="I87">
-        <v>364.70151778784424</v>
+        <v>1.141483337457547E-5</v>
       </c>
       <c r="J87">
-        <v>1.141483337457547E-5</v>
-      </c>
-      <c r="K87">
         <v>374.43069458000002</v>
       </c>
+      <c r="K87" s="1">
+        <v>23.6</v>
+      </c>
       <c r="L87" s="1">
-        <v>23.6</v>
+        <v>73</v>
       </c>
       <c r="M87" s="1">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="N87" s="1">
-        <v>115</v>
-      </c>
-      <c r="O87" s="1">
         <v>17.3</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>171</v>
       </c>
@@ -5496,28 +5232,25 @@
         <v>5.2734967238401603E-5</v>
       </c>
       <c r="I88">
-        <v>5.7292484722402808</v>
+        <v>1.0790418945866202E-5</v>
       </c>
       <c r="J88">
-        <v>1.0790418945866202E-5</v>
-      </c>
-      <c r="K88">
         <v>1006.9387817399999</v>
       </c>
+      <c r="K88" s="1">
+        <v>0.9</v>
+      </c>
       <c r="L88" s="1">
-        <v>0.9</v>
+        <v>62</v>
       </c>
       <c r="M88" s="1">
-        <v>62</v>
+        <v>47.4</v>
       </c>
       <c r="N88" s="1">
-        <v>47.4</v>
-      </c>
-      <c r="O88" s="1">
         <v>7.7</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>173</v>
       </c>
@@ -5543,28 +5276,25 @@
         <v>6.3587269177577014E-6</v>
       </c>
       <c r="I89">
-        <v>17.510141171340312</v>
+        <v>8.9073764799951199E-7</v>
       </c>
       <c r="J89">
-        <v>8.9073764799951199E-7</v>
-      </c>
-      <c r="K89">
         <v>31.37810516</v>
       </c>
+      <c r="K89" s="1">
+        <v>23.1</v>
+      </c>
       <c r="L89" s="1">
-        <v>23.1</v>
+        <v>38</v>
       </c>
       <c r="M89" s="1">
-        <v>38</v>
+        <v>25.6</v>
       </c>
       <c r="N89" s="1">
-        <v>25.6</v>
-      </c>
-      <c r="O89" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>175</v>
       </c>
@@ -5590,28 +5320,25 @@
         <v>2.270781625743397E-5</v>
       </c>
       <c r="I90">
-        <v>14.786156563304603</v>
+        <v>3.3576132639317225E-5</v>
       </c>
       <c r="J90">
-        <v>3.3576132639317225E-5</v>
-      </c>
-      <c r="K90">
         <v>2585.5639648400002</v>
       </c>
+      <c r="K90" s="1">
+        <v>6.1</v>
+      </c>
       <c r="L90" s="1">
-        <v>6.1</v>
+        <v>82</v>
       </c>
       <c r="M90" s="1">
-        <v>82</v>
+        <v>209.1</v>
       </c>
       <c r="N90" s="1">
-        <v>209.1</v>
-      </c>
-      <c r="O90" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>177</v>
       </c>
@@ -5637,28 +5364,25 @@
         <v>3.4911741790990027E-5</v>
       </c>
       <c r="I91">
-        <v>7.5937524502054989</v>
+        <v>1.6779185111789384E-6</v>
       </c>
       <c r="J91">
-        <v>1.6779185111789384E-6</v>
-      </c>
-      <c r="K91">
         <v>48.817131040000007</v>
       </c>
+      <c r="K91" s="1">
+        <v>24.7</v>
+      </c>
       <c r="L91" s="1">
-        <v>24.7</v>
+        <v>41</v>
       </c>
       <c r="M91" s="1">
-        <v>41</v>
+        <v>20.2</v>
       </c>
       <c r="N91" s="1">
-        <v>20.2</v>
-      </c>
-      <c r="O91" s="1">
         <v>41.7</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>179</v>
       </c>
@@ -5684,28 +5408,25 @@
         <v>7.8760622839005412E-5</v>
       </c>
       <c r="I92">
-        <v>14.180444557204673</v>
+        <v>1.1168606454594243E-4</v>
       </c>
       <c r="J92">
-        <v>1.1168606454594243E-4</v>
-      </c>
-      <c r="K92">
         <v>599.69976807</v>
       </c>
+      <c r="K92" s="1">
+        <v>13.7</v>
+      </c>
       <c r="L92" s="1">
-        <v>13.7</v>
+        <v>63</v>
       </c>
       <c r="M92" s="1">
-        <v>63</v>
+        <v>169.5</v>
       </c>
       <c r="N92" s="1">
-        <v>169.5</v>
-      </c>
-      <c r="O92" s="1">
         <v>13.5</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>181</v>
       </c>
@@ -5731,28 +5452,25 @@
         <v>4.7658042632925314E-4</v>
       </c>
       <c r="I93">
-        <v>1258.2867171245252</v>
+        <v>9.8630726988757011E-6</v>
       </c>
       <c r="J93">
-        <v>9.8630726988757011E-6</v>
-      </c>
-      <c r="K93">
         <v>494.67764282000007</v>
       </c>
+      <c r="K93" s="1">
+        <v>13.1</v>
+      </c>
       <c r="L93" s="1">
-        <v>13.1</v>
+        <v>76</v>
       </c>
       <c r="M93" s="1">
-        <v>76</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="N93" s="1">
-        <v>38.299999999999997</v>
-      </c>
-      <c r="O93" s="1">
         <v>20.9</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>183</v>
       </c>
@@ -5778,28 +5496,25 @@
         <v>0</v>
       </c>
       <c r="I94">
-        <v>13.85285025948536</v>
+        <v>4.2952363566667142E-6</v>
       </c>
       <c r="J94">
-        <v>4.2952363566667142E-6</v>
-      </c>
-      <c r="K94">
         <v>148.78445434999998</v>
       </c>
+      <c r="K94" s="1">
+        <v>16.5</v>
+      </c>
       <c r="L94" s="1">
-        <v>16.5</v>
+        <v>62</v>
       </c>
       <c r="M94" s="1">
-        <v>62</v>
+        <v>36.700000000000003</v>
       </c>
       <c r="N94" s="1">
-        <v>36.700000000000003</v>
-      </c>
-      <c r="O94" s="1">
         <v>49.5</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>185</v>
       </c>
@@ -5825,28 +5540,25 @@
         <v>2.6184638276084576E-5</v>
       </c>
       <c r="I95">
-        <v>118.72527959613038</v>
+        <v>3.2552654454991399E-6</v>
       </c>
       <c r="J95">
-        <v>3.2552654454991399E-6</v>
-      </c>
-      <c r="K95">
         <v>161.01086426000001</v>
       </c>
+      <c r="K95" s="1">
+        <v>19.600000000000001</v>
+      </c>
       <c r="L95" s="1">
-        <v>19.600000000000001</v>
+        <v>70</v>
       </c>
       <c r="M95" s="1">
-        <v>70</v>
+        <v>155.9</v>
       </c>
       <c r="N95" s="1">
-        <v>155.9</v>
-      </c>
-      <c r="O95" s="1">
         <v>31.1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>187</v>
       </c>
@@ -5872,28 +5584,25 @@
         <v>6.9156195293538909E-7</v>
       </c>
       <c r="I96">
-        <v>14.934159925523415</v>
+        <v>4.9180460969259035E-7</v>
       </c>
       <c r="J96">
-        <v>4.9180460969259035E-7</v>
-      </c>
-      <c r="K96">
         <v>21.071155550000004</v>
       </c>
+      <c r="K96" s="1">
+        <v>30.1</v>
+      </c>
       <c r="L96" s="1">
-        <v>30.1</v>
+        <v>46</v>
       </c>
       <c r="M96" s="1">
-        <v>46</v>
+        <v>49.1</v>
       </c>
       <c r="N96" s="1">
-        <v>49.1</v>
-      </c>
-      <c r="O96" s="1">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>189</v>
       </c>
@@ -5919,28 +5628,25 @@
         <v>1.1101772875415794E-7</v>
       </c>
       <c r="I97">
-        <v>76.085852617137135</v>
+        <v>1.4078130913130281E-6</v>
       </c>
       <c r="J97">
-        <v>1.4078130913130281E-6</v>
-      </c>
-      <c r="K97">
         <v>57.872184749999995</v>
       </c>
+      <c r="K97" s="1">
+        <v>19.899999999999999</v>
+      </c>
       <c r="L97" s="1">
-        <v>19.899999999999999</v>
+        <v>61</v>
       </c>
       <c r="M97" s="1">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="N97" s="1">
-        <v>110</v>
-      </c>
-      <c r="O97" s="1">
         <v>34.6</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>191</v>
       </c>
@@ -5966,28 +5672,25 @@
         <v>2.2850050751165352E-5</v>
       </c>
       <c r="I98">
-        <v>12.366527719332245</v>
+        <v>4.9574699298672796E-6</v>
       </c>
       <c r="J98">
-        <v>4.9574699298672796E-6</v>
-      </c>
-      <c r="K98">
         <v>447.2806396499999</v>
       </c>
+      <c r="K98" s="1">
+        <v>30.4</v>
+      </c>
       <c r="L98" s="1">
-        <v>30.4</v>
+        <v>62</v>
       </c>
       <c r="M98" s="1">
-        <v>62</v>
+        <v>156.4</v>
       </c>
       <c r="N98" s="1">
-        <v>156.4</v>
-      </c>
-      <c r="O98" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>193</v>
       </c>
@@ -6013,28 +5716,25 @@
         <v>5.7325189194970833E-6</v>
       </c>
       <c r="I99">
-        <v>30.641380604298377</v>
+        <v>1.0710505733759233E-6</v>
       </c>
       <c r="J99">
-        <v>1.0710505733759233E-6</v>
-      </c>
-      <c r="K99">
         <v>47.915363310000004</v>
       </c>
+      <c r="K99" s="1">
+        <v>15.9</v>
+      </c>
       <c r="L99" s="1">
-        <v>15.9</v>
+        <v>48</v>
       </c>
       <c r="M99" s="1">
-        <v>48</v>
+        <v>145</v>
       </c>
       <c r="N99" s="1">
-        <v>145</v>
-      </c>
-      <c r="O99" s="1">
         <v>99.5</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>195</v>
       </c>
@@ -6060,28 +5760,25 @@
         <v>3.6251713226839391E-4</v>
       </c>
       <c r="I100">
-        <v>909.07039516078282</v>
+        <v>5.3170957193253086E-5</v>
       </c>
       <c r="J100">
-        <v>5.3170957193253086E-5</v>
-      </c>
-      <c r="K100">
         <v>4911.4404296900011</v>
       </c>
+      <c r="K100" s="1">
+        <v>3.8</v>
+      </c>
       <c r="L100" s="1">
-        <v>3.8</v>
+        <v>86</v>
       </c>
       <c r="M100" s="1">
-        <v>86</v>
+        <v>193.8</v>
       </c>
       <c r="N100" s="1">
-        <v>193.8</v>
-      </c>
-      <c r="O100" s="1">
         <v>12.1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>197</v>
       </c>
@@ -6107,28 +5804,25 @@
         <v>4.5995640449569748E-6</v>
       </c>
       <c r="I101">
-        <v>206.92876554393476</v>
+        <v>4.3262823175600641E-5</v>
       </c>
       <c r="J101">
-        <v>4.3262823175600641E-5</v>
-      </c>
-      <c r="K101">
         <v>3937.2219238300008</v>
       </c>
+      <c r="K101" s="1">
+        <v>7.8</v>
+      </c>
       <c r="L101" s="1">
-        <v>7.8</v>
+        <v>87</v>
       </c>
       <c r="M101" s="1">
-        <v>87</v>
+        <v>13.7</v>
       </c>
       <c r="N101" s="1">
-        <v>13.7</v>
-      </c>
-      <c r="O101" s="1">
         <v>5.8</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>199</v>
       </c>
@@ -6154,28 +5848,25 @@
         <v>2.9600116581560613E-6</v>
       </c>
       <c r="I102">
-        <v>12.928145120029605</v>
+        <v>5.5460087353073946E-7</v>
       </c>
       <c r="J102">
-        <v>5.5460087353073946E-7</v>
-      </c>
-      <c r="K102">
         <v>29.26165009</v>
       </c>
+      <c r="K102" s="1">
+        <v>26.2</v>
+      </c>
       <c r="L102" s="1">
-        <v>26.2</v>
+        <v>37</v>
       </c>
       <c r="M102" s="1">
-        <v>37</v>
+        <v>7.2</v>
       </c>
       <c r="N102" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="O102" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>201</v>
       </c>
@@ -6201,28 +5892,25 @@
         <v>5.0108576128583838E-6</v>
       </c>
       <c r="I103">
-        <v>448.12042885876923</v>
+        <v>2.2298586518612987E-6</v>
       </c>
       <c r="J103">
-        <v>2.2298586518612987E-6</v>
-      </c>
-      <c r="K103">
         <v>73.924980160000004</v>
       </c>
+      <c r="K103" s="1">
+        <v>21.4</v>
+      </c>
       <c r="L103" s="1">
-        <v>21.4</v>
+        <v>42</v>
       </c>
       <c r="M103" s="1">
-        <v>42</v>
+        <v>251.8</v>
       </c>
       <c r="N103" s="1">
-        <v>251.8</v>
-      </c>
-      <c r="O103" s="1">
         <v>46.3</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>203</v>
       </c>
@@ -6248,28 +5936,25 @@
         <v>4.908104116505006E-5</v>
       </c>
       <c r="I104">
-        <v>403.33636363636361</v>
+        <v>7.498548737499228E-5</v>
       </c>
       <c r="J104">
-        <v>7.498548737499228E-5</v>
-      </c>
-      <c r="K104">
         <v>7936.375</v>
       </c>
+      <c r="K104" s="1">
+        <v>2.7</v>
+      </c>
       <c r="L104" s="1">
-        <v>2.7</v>
+        <v>87</v>
       </c>
       <c r="M104" s="1">
-        <v>87</v>
+        <v>307.39999999999998</v>
       </c>
       <c r="N104" s="1">
-        <v>307.39999999999998</v>
-      </c>
-      <c r="O104" s="1">
         <v>7.8</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>205</v>
       </c>
@@ -6295,28 +5980,25 @@
         <v>1.290454336408983E-4</v>
       </c>
       <c r="I105">
-        <v>76.98309492847855</v>
+        <v>1.5474013813183729E-5</v>
       </c>
       <c r="J105">
-        <v>1.5474013813183729E-5</v>
-      </c>
-      <c r="K105">
         <v>587.64630126999998</v>
       </c>
+      <c r="K105" s="1">
+        <v>16.100000000000001</v>
+      </c>
       <c r="L105" s="1">
-        <v>16.100000000000001</v>
+        <v>69</v>
       </c>
       <c r="M105" s="1">
-        <v>69</v>
+        <v>8.6</v>
       </c>
       <c r="N105" s="1">
-        <v>8.6</v>
-      </c>
-      <c r="O105" s="1">
         <v>36.200000000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>207</v>
       </c>
@@ -6342,28 +6024,25 @@
         <v>2.8938151717063727E-5</v>
       </c>
       <c r="I106">
-        <v>278.22190602284104</v>
+        <v>1.2847020468325546E-6</v>
       </c>
       <c r="J106">
-        <v>1.2847020468325546E-6</v>
-      </c>
-      <c r="K106">
         <v>44.592964170000002</v>
       </c>
+      <c r="K106" s="1">
+        <v>14.3</v>
+      </c>
       <c r="L106" s="1">
-        <v>14.3</v>
+        <v>45</v>
       </c>
       <c r="M106" s="1">
-        <v>45</v>
+        <v>53.9</v>
       </c>
       <c r="N106" s="1">
-        <v>53.9</v>
-      </c>
-      <c r="O106" s="1">
         <v>56.2</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>209</v>
       </c>
@@ -6389,28 +6068,25 @@
         <v>4.4884656323885422E-3</v>
       </c>
       <c r="I107">
-        <v>66.800799999999995</v>
+        <v>1.5731012330328463E-4</v>
       </c>
       <c r="J107">
-        <v>1.5731012330328463E-4</v>
-      </c>
-      <c r="K107">
         <v>1112.3032226600001</v>
       </c>
+      <c r="K107" s="1">
+        <v>14.3</v>
+      </c>
       <c r="L107" s="1">
-        <v>14.3</v>
+        <v>79</v>
       </c>
       <c r="M107" s="1">
-        <v>79</v>
+        <v>173.6</v>
       </c>
       <c r="N107" s="1">
-        <v>173.6</v>
-      </c>
-      <c r="O107" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>211</v>
       </c>
@@ -6436,28 +6112,25 @@
         <v>4.5578233385395068E-7</v>
       </c>
       <c r="I108">
-        <v>24.969611434768385</v>
+        <v>2.8451769437912573E-6</v>
       </c>
       <c r="J108">
-        <v>2.8451769437912573E-6</v>
-      </c>
-      <c r="K108">
         <v>61.457839970000009</v>
       </c>
+      <c r="K108" s="1">
+        <v>14.2</v>
+      </c>
       <c r="L108" s="1">
-        <v>14.2</v>
+        <v>40</v>
       </c>
       <c r="M108" s="1">
-        <v>40</v>
+        <v>25.8</v>
       </c>
       <c r="N108" s="1">
-        <v>25.8</v>
-      </c>
-      <c r="O108" s="1">
         <v>11.5</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>213</v>
       </c>
@@ -6483,28 +6156,25 @@
         <v>3.1087469492758963E-5</v>
       </c>
       <c r="I109">
-        <v>38.145288939848811</v>
+        <v>5.4147968320092502E-6</v>
       </c>
       <c r="J109">
-        <v>5.4147968320092502E-6</v>
-      </c>
-      <c r="K109">
         <v>381.11306762999993</v>
       </c>
+      <c r="K109" s="1">
+        <v>22.7</v>
+      </c>
       <c r="L109" s="1">
-        <v>22.7</v>
+        <v>69</v>
       </c>
       <c r="M109" s="1">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="N109" s="1">
-        <v>152</v>
-      </c>
-      <c r="O109" s="1">
         <v>11.7</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>215</v>
       </c>
@@ -6530,28 +6200,25 @@
         <v>8.5550922038573306E-4</v>
       </c>
       <c r="I110">
-        <v>226.84805081952473</v>
+        <v>6.9776938518906542E-6</v>
       </c>
       <c r="J110">
-        <v>6.9776938518906542E-6</v>
-      </c>
-      <c r="K110">
         <v>332.5709228500001</v>
       </c>
+      <c r="K110" s="1">
+        <v>13.5</v>
+      </c>
       <c r="L110" s="1">
-        <v>13.5</v>
+        <v>77</v>
       </c>
       <c r="M110" s="1">
-        <v>77</v>
+        <v>57.5</v>
       </c>
       <c r="N110" s="1">
-        <v>57.5</v>
-      </c>
-      <c r="O110" s="1">
         <v>29</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>217</v>
       </c>
@@ -6577,28 +6244,25 @@
         <v>2.8099287082794724E-5</v>
       </c>
       <c r="I111">
-        <v>376.79550867967583</v>
+        <v>3.4850839927247805E-6</v>
       </c>
       <c r="J111">
-        <v>3.4850839927247805E-6</v>
-      </c>
-      <c r="K111">
         <v>132.90098571999999</v>
       </c>
+      <c r="K111" s="1">
+        <v>12.3</v>
+      </c>
       <c r="L111" s="1">
-        <v>12.3</v>
+        <v>61</v>
       </c>
       <c r="M111" s="1">
-        <v>61</v>
+        <v>63.9</v>
       </c>
       <c r="N111" s="1">
-        <v>63.9</v>
-      </c>
-      <c r="O111" s="1">
         <v>18.7</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>219</v>
       </c>
@@ -6624,28 +6288,25 @@
         <v>5.2180425182574084E-5</v>
       </c>
       <c r="I112">
-        <v>592.16440068760744</v>
+        <v>1.5629433589207648E-5</v>
       </c>
       <c r="J112">
-        <v>1.5629433589207648E-5</v>
-      </c>
-      <c r="K112">
         <v>906.82012939000015</v>
       </c>
+      <c r="K112" s="1">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="L112" s="1">
-        <v>9.6999999999999993</v>
+        <v>75</v>
       </c>
       <c r="M112" s="1">
-        <v>75</v>
+        <v>185.2</v>
       </c>
       <c r="N112" s="1">
-        <v>185.2</v>
-      </c>
-      <c r="O112" s="1">
         <v>21.5</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>221</v>
       </c>
@@ -6671,28 +6332,25 @@
         <v>1.7650778228190436E-4</v>
       </c>
       <c r="I113">
-        <v>237.68607563469766</v>
+        <v>2.3242904204747625E-5</v>
       </c>
       <c r="J113">
-        <v>2.3242904204747625E-5</v>
-      </c>
-      <c r="K113">
         <v>1908.03393555</v>
       </c>
+      <c r="K113" s="1">
+        <v>7.4</v>
+      </c>
       <c r="L113" s="1">
-        <v>7.4</v>
+        <v>82</v>
       </c>
       <c r="M113" s="1">
-        <v>82</v>
+        <v>37.9</v>
       </c>
       <c r="N113" s="1">
-        <v>37.9</v>
-      </c>
-      <c r="O113" s="1">
         <v>8.1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>223</v>
       </c>
@@ -6718,28 +6376,25 @@
         <v>6.8501107493420889E-5</v>
       </c>
       <c r="I114">
-        <v>183.46620879120877</v>
+        <v>6.47816417000876E-5</v>
       </c>
       <c r="J114">
-        <v>6.47816417000876E-5</v>
-      </c>
-      <c r="K114">
         <v>1649.1861572299997</v>
       </c>
+      <c r="K114" s="1">
+        <v>9.3000000000000007</v>
+      </c>
       <c r="L114" s="1">
-        <v>9.3000000000000007</v>
+        <v>68</v>
       </c>
       <c r="M114" s="1">
-        <v>68</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="N114" s="1">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="O114" s="1">
         <v>91.7</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>225</v>
       </c>
@@ -6765,28 +6420,25 @@
         <v>6.0907378208523086E-6</v>
       </c>
       <c r="I115">
-        <v>1642.3832171672639</v>
+        <v>3.2061940952351745E-5</v>
       </c>
       <c r="J115">
-        <v>3.2061940952351745E-5</v>
-      </c>
-      <c r="K115">
         <v>2283.0747070299994</v>
       </c>
+      <c r="K115" s="1">
+        <v>9.8000000000000007</v>
+      </c>
       <c r="L115" s="1">
-        <v>9.8000000000000007</v>
+        <v>86</v>
       </c>
       <c r="M115" s="1">
-        <v>86</v>
+        <v>47.4</v>
       </c>
       <c r="N115" s="1">
-        <v>47.4</v>
-      </c>
-      <c r="O115" s="1">
         <v>24.7</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>227</v>
       </c>
@@ -6812,28 +6464,25 @@
         <v>1.7387435334181137E-4</v>
       </c>
       <c r="I116">
-        <v>250.07744401708396</v>
+        <v>1.2914182911744433E-5</v>
       </c>
       <c r="J116">
-        <v>1.2914182911744433E-5</v>
-      </c>
-      <c r="K116">
         <v>555.10473633000004</v>
       </c>
+      <c r="K116" s="1">
+        <v>10.3</v>
+      </c>
       <c r="L116" s="1">
-        <v>10.3</v>
+        <v>74</v>
       </c>
       <c r="M116" s="1">
-        <v>74</v>
+        <v>20.5</v>
       </c>
       <c r="N116" s="1">
-        <v>20.5</v>
-      </c>
-      <c r="O116" s="1">
         <v>15.4</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>229</v>
       </c>
@@ -6859,28 +6508,25 @@
         <v>1.1436718674270215E-3</v>
       </c>
       <c r="I117">
-        <v>1699.8765788713531</v>
+        <v>1.1653186005833824E-4</v>
       </c>
       <c r="J117">
-        <v>1.1653186005833824E-4</v>
-      </c>
-      <c r="K117">
         <v>585.87322998000002</v>
       </c>
+      <c r="K117" s="1">
+        <v>18</v>
+      </c>
       <c r="L117" s="1">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="M117" s="1">
-        <v>75</v>
+        <v>59.3</v>
       </c>
       <c r="N117" s="1">
-        <v>59.3</v>
-      </c>
-      <c r="O117" s="1">
         <v>14.7</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>231</v>
       </c>
@@ -6906,28 +6552,25 @@
         <v>1.1879364577540494E-6</v>
       </c>
       <c r="I118">
-        <v>10.122472590172041</v>
+        <v>8.016569488320954E-7</v>
       </c>
       <c r="J118">
-        <v>8.016569488320954E-7</v>
-      </c>
-      <c r="K118">
         <v>49.204456329999992</v>
       </c>
+      <c r="K118" s="1">
+        <v>29.7</v>
+      </c>
       <c r="L118" s="1">
-        <v>29.7</v>
+        <v>57</v>
       </c>
       <c r="M118" s="1">
-        <v>57</v>
+        <v>49.4</v>
       </c>
       <c r="N118" s="1">
-        <v>49.4</v>
-      </c>
-      <c r="O118" s="1">
         <v>40.700000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>233</v>
       </c>
@@ -6953,28 +6596,25 @@
         <v>6.9751869350098586E-5</v>
       </c>
       <c r="I119">
-        <v>0.42901660520820489</v>
+        <v>1.9949806797003686E-6</v>
       </c>
       <c r="J119">
-        <v>1.9949806797003686E-6</v>
-      </c>
-      <c r="K119">
         <v>119.69565582</v>
       </c>
+      <c r="K119" s="1">
+        <v>27.5</v>
+      </c>
       <c r="L119" s="1">
-        <v>27.5</v>
+        <v>55</v>
       </c>
       <c r="M119" s="1">
-        <v>55</v>
+        <v>121.4</v>
       </c>
       <c r="N119" s="1">
-        <v>121.4</v>
-      </c>
-      <c r="O119" s="1">
         <v>25.2</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>235</v>
       </c>
@@ -7000,28 +6640,25 @@
         <v>1.6813568574384883E-5</v>
       </c>
       <c r="I120">
-        <v>23.578084052014724</v>
+        <v>1.4468311425589788E-6</v>
       </c>
       <c r="J120">
-        <v>1.4468311425589788E-6</v>
-      </c>
-      <c r="K120">
         <v>55.014038090000007</v>
       </c>
+      <c r="K120" s="1">
+        <v>23.4</v>
+      </c>
       <c r="L120" s="1">
-        <v>23.4</v>
+        <v>45</v>
       </c>
       <c r="M120" s="1">
-        <v>45</v>
+        <v>162.4</v>
       </c>
       <c r="N120" s="1">
-        <v>162.4</v>
-      </c>
-      <c r="O120" s="1">
         <v>39.700000000000003</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>237</v>
       </c>
@@ -7047,28 +6684,25 @@
         <v>8.0367268155820843E-5</v>
       </c>
       <c r="I121">
-        <v>51.409167350754778</v>
+        <v>5.8604458697100416E-6</v>
       </c>
       <c r="J121">
-        <v>5.8604458697100416E-6</v>
-      </c>
-      <c r="K121">
         <v>528.54516602000001</v>
       </c>
+      <c r="K121" s="1">
+        <v>7.4</v>
+      </c>
       <c r="L121" s="1">
-        <v>7.4</v>
+        <v>65</v>
       </c>
       <c r="M121" s="1">
-        <v>65</v>
+        <v>160.69999999999999</v>
       </c>
       <c r="N121" s="1">
-        <v>160.69999999999999</v>
-      </c>
-      <c r="O121" s="1">
         <v>24.7</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>239</v>
       </c>
@@ -7094,28 +6728,25 @@
         <v>0</v>
       </c>
       <c r="I122">
-        <v>1.6988430627614135</v>
+        <v>1.7381068975776935E-5</v>
       </c>
       <c r="J122">
-        <v>1.7381068975776935E-5</v>
-      </c>
-      <c r="K122">
         <v>791.65667724999992</v>
       </c>
+      <c r="K122" s="1">
+        <v>15.9</v>
+      </c>
       <c r="L122" s="1">
-        <v>15.9</v>
+        <v>71</v>
       </c>
       <c r="M122" s="1">
-        <v>71</v>
+        <v>62.5</v>
       </c>
       <c r="N122" s="1">
-        <v>62.5</v>
-      </c>
-      <c r="O122" s="1">
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>241</v>
       </c>
@@ -7141,28 +6772,25 @@
         <v>4.6516892609551155E-6</v>
       </c>
       <c r="I123">
-        <v>372.06252748863801</v>
+        <v>6.4100713463804257E-5</v>
       </c>
       <c r="J123">
-        <v>6.4100713463804257E-5</v>
-      </c>
-      <c r="K123">
         <v>2618.7124023400002</v>
       </c>
+      <c r="K123" s="1">
+        <v>2.8</v>
+      </c>
       <c r="L123" s="1">
-        <v>2.8</v>
+        <v>86</v>
       </c>
       <c r="M123" s="1">
-        <v>86</v>
+        <v>49.3</v>
       </c>
       <c r="N123" s="1">
-        <v>49.3</v>
-      </c>
-      <c r="O123" s="1">
         <v>18.3</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>243</v>
       </c>
@@ -7188,28 +6816,25 @@
         <v>6.0472654265741031E-6</v>
       </c>
       <c r="I124">
-        <v>105.4223049755763</v>
+        <v>1.9318686668744049E-5</v>
       </c>
       <c r="J124">
-        <v>1.9318686668744049E-5</v>
-      </c>
-      <c r="K124">
         <v>1186.13635254</v>
       </c>
+      <c r="K124" s="1">
+        <v>6.1</v>
+      </c>
       <c r="L124" s="1">
-        <v>6.1</v>
+        <v>77</v>
       </c>
       <c r="M124" s="1">
-        <v>77</v>
+        <v>25.9</v>
       </c>
       <c r="N124" s="1">
-        <v>25.9</v>
-      </c>
-      <c r="O124" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>245</v>
       </c>
@@ -7235,28 +6860,25 @@
         <v>6.157830981009827E-5</v>
       </c>
       <c r="I125">
-        <v>53.742159516927757</v>
+        <v>2.5854307410914832E-5</v>
       </c>
       <c r="J125">
-        <v>2.5854307410914832E-5</v>
-      </c>
-      <c r="K125">
         <v>1920.2818603500004</v>
       </c>
+      <c r="K125" s="1">
+        <v>6.4</v>
+      </c>
       <c r="L125" s="1">
-        <v>6.4</v>
+        <v>79</v>
       </c>
       <c r="M125" s="1">
-        <v>79</v>
+        <v>33.5</v>
       </c>
       <c r="N125" s="1">
-        <v>33.5</v>
-      </c>
-      <c r="O125" s="1">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>247</v>
       </c>
@@ -7282,28 +6904,25 @@
         <v>6.0221826125212443E-6</v>
       </c>
       <c r="I126">
-        <v>4.72</v>
+        <v>3.0564195624839001E-7</v>
       </c>
       <c r="J126">
-        <v>3.0564195624839001E-7</v>
-      </c>
-      <c r="K126">
         <v>101.23986816</v>
       </c>
+      <c r="K126" s="1">
+        <v>27.1</v>
+      </c>
       <c r="L126" s="1">
-        <v>27.1</v>
+        <v>25</v>
       </c>
       <c r="M126" s="1">
-        <v>25</v>
+        <v>22.6</v>
       </c>
       <c r="N126" s="1">
-        <v>22.6</v>
-      </c>
-      <c r="O126" s="1">
         <v>28</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>249</v>
       </c>
@@ -7329,28 +6948,25 @@
         <v>2.2726082382185252E-4</v>
       </c>
       <c r="I127">
-        <v>351.43164924143855</v>
+        <v>6.0014011214067952E-6</v>
       </c>
       <c r="J127">
-        <v>6.0014011214067952E-6</v>
-      </c>
-      <c r="K127">
         <v>499.23754883000004</v>
       </c>
+      <c r="K127" s="1">
+        <v>25.9</v>
+      </c>
       <c r="L127" s="1">
-        <v>25.9</v>
+        <v>69</v>
       </c>
       <c r="M127" s="1">
-        <v>69</v>
+        <v>212.8</v>
       </c>
       <c r="N127" s="1">
-        <v>212.8</v>
-      </c>
-      <c r="O127" s="1">
         <v>24.3</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>251</v>
       </c>
@@ -7376,28 +6992,25 @@
         <v>4.2487358202961926E-6</v>
       </c>
       <c r="I128">
-        <v>12</v>
+        <v>1.084783613692645E-6</v>
       </c>
       <c r="J128">
-        <v>1.084783613692645E-6</v>
-      </c>
-      <c r="K128">
         <v>22.888572690000007</v>
       </c>
+      <c r="K128" s="1">
+        <v>29.9</v>
+      </c>
       <c r="L128" s="1">
-        <v>29.9</v>
+        <v>31</v>
       </c>
       <c r="M128" s="1">
-        <v>31</v>
+        <v>86.7</v>
       </c>
       <c r="N128" s="1">
-        <v>86.7</v>
-      </c>
-      <c r="O128" s="1">
         <v>40.9</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>253</v>
       </c>
@@ -7423,28 +7036,25 @@
         <v>6.1887016525870352E-4</v>
       </c>
       <c r="I129">
-        <v>1394.1163107686252</v>
+        <v>2.9829103569189363E-5</v>
       </c>
       <c r="J129">
-        <v>2.9829103569189363E-5</v>
-      </c>
-      <c r="K129">
         <v>2506.46484375</v>
       </c>
+      <c r="K129" s="1">
+        <v>4.0999999999999996</v>
+      </c>
       <c r="L129" s="1">
-        <v>4.0999999999999996</v>
+        <v>83</v>
       </c>
       <c r="M129" s="1">
-        <v>83</v>
+        <v>165.1</v>
       </c>
       <c r="N129" s="1">
-        <v>165.1</v>
-      </c>
-      <c r="O129" s="1">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>255</v>
       </c>
@@ -7470,28 +7080,25 @@
         <v>5.6275322136357541E-7</v>
       </c>
       <c r="I130">
-        <v>84.008783756068027</v>
+        <v>3.9396844734636079E-6</v>
       </c>
       <c r="J130">
-        <v>3.9396844734636079E-6</v>
-      </c>
-      <c r="K130">
         <v>159.48474120999998</v>
       </c>
+      <c r="K130" s="1">
+        <v>14.9</v>
+      </c>
       <c r="L130" s="1">
-        <v>14.9</v>
+        <v>66</v>
       </c>
       <c r="M130" s="1">
-        <v>66</v>
+        <v>9.9</v>
       </c>
       <c r="N130" s="1">
-        <v>9.9</v>
-      </c>
-      <c r="O130" s="1">
         <v>15.1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>257</v>
       </c>
@@ -7517,28 +7124,25 @@
         <v>1.9129597698954646E-5</v>
       </c>
       <c r="I131">
-        <v>18.90228447560542</v>
+        <v>4.415056136868469E-7</v>
       </c>
       <c r="J131">
-        <v>4.415056136868469E-7</v>
-      </c>
-      <c r="K131">
         <v>193.79304503999998</v>
       </c>
+      <c r="K131" s="1">
+        <v>25.7</v>
+      </c>
       <c r="L131" s="1">
-        <v>25.7</v>
+        <v>44</v>
       </c>
       <c r="M131" s="1">
-        <v>44</v>
+        <v>79.8</v>
       </c>
       <c r="N131" s="1">
-        <v>79.8</v>
-      </c>
-      <c r="O131" s="1">
         <v>46.8</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>259</v>
       </c>
@@ -7564,28 +7168,25 @@
         <v>1.0320574236750533E-4</v>
       </c>
       <c r="I132">
-        <v>3.9852507374631267</v>
+        <v>6.8550126813421676E-6</v>
       </c>
       <c r="J132">
-        <v>6.8550126813421676E-6</v>
-      </c>
-      <c r="K132">
         <v>339.32797240999997</v>
       </c>
+      <c r="K132" s="1">
+        <v>14.5</v>
+      </c>
       <c r="L132" s="1">
-        <v>14.5</v>
+        <v>71</v>
       </c>
       <c r="M132" s="1">
-        <v>71</v>
+        <v>184.9</v>
       </c>
       <c r="N132" s="1">
-        <v>184.9</v>
-      </c>
-      <c r="O132" s="1">
         <v>25.8</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>261</v>
       </c>
@@ -7611,28 +7212,25 @@
         <v>5.7929189885089173E-4</v>
       </c>
       <c r="I133">
-        <v>530.83290873786245</v>
+        <v>5.2890815905624086E-5</v>
       </c>
       <c r="J133">
-        <v>5.2890815905624086E-5</v>
-      </c>
-      <c r="K133">
         <v>5904.5839843799986</v>
       </c>
+      <c r="K133" s="1">
+        <v>2.8</v>
+      </c>
       <c r="L133" s="1">
-        <v>2.8</v>
+        <v>86</v>
       </c>
       <c r="M133" s="1">
-        <v>86</v>
+        <v>56.7</v>
       </c>
       <c r="N133" s="1">
-        <v>56.7</v>
-      </c>
-      <c r="O133" s="1">
         <v>6.1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>263</v>
       </c>
@@ -7658,28 +7256,25 @@
         <v>2.0043390098495453E-4</v>
       </c>
       <c r="I134">
-        <v>703.08243536011673</v>
+        <v>8.18359786487981E-5</v>
       </c>
       <c r="J134">
-        <v>8.18359786487981E-5</v>
-      </c>
-      <c r="K134">
         <v>9956.2597656300022</v>
       </c>
+      <c r="K134" s="1">
+        <v>2.7</v>
+      </c>
       <c r="L134" s="1">
-        <v>2.7</v>
+        <v>83</v>
       </c>
       <c r="M134" s="1">
-        <v>83</v>
+        <v>7.2</v>
       </c>
       <c r="N134" s="1">
-        <v>7.2</v>
-      </c>
-      <c r="O134" s="1">
         <v>10.4</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>265</v>
       </c>
@@ -7705,28 +7300,25 @@
         <v>7.1880522127238605E-6</v>
       </c>
       <c r="I135">
-        <v>8.116626794258373</v>
+        <v>8.7078712221377128E-7</v>
       </c>
       <c r="J135">
-        <v>8.7078712221377128E-7</v>
-      </c>
-      <c r="K135">
         <v>57.899852750000015</v>
       </c>
+      <c r="K135" s="1">
+        <v>18.100000000000001</v>
+      </c>
       <c r="L135" s="1">
-        <v>18.100000000000001</v>
+        <v>68</v>
       </c>
       <c r="M135" s="1">
-        <v>68</v>
+        <v>10.1</v>
       </c>
       <c r="N135" s="1">
-        <v>10.1</v>
-      </c>
-      <c r="O135" s="1">
         <v>42.8</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>267</v>
       </c>
@@ -7752,28 +7344,25 @@
         <v>8.3302715994571023E-7</v>
       </c>
       <c r="I136">
-        <v>543.6499761656296</v>
+        <v>7.8081930284449555E-6</v>
       </c>
       <c r="J136">
-        <v>7.8081930284449555E-6</v>
-      </c>
-      <c r="K136">
         <v>247.03511047000001</v>
       </c>
+      <c r="K136" s="1">
+        <v>32.700000000000003</v>
+      </c>
       <c r="L136" s="1">
-        <v>32.700000000000003</v>
+        <v>80</v>
       </c>
       <c r="M136" s="1">
-        <v>80</v>
+        <v>129.30000000000001</v>
       </c>
       <c r="N136" s="1">
-        <v>129.30000000000001</v>
-      </c>
-      <c r="O136" s="1">
         <v>26.6</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>269</v>
       </c>
@@ -7799,28 +7388,25 @@
         <v>6.1378500193417281E-4</v>
       </c>
       <c r="I137">
-        <v>2827.1131846955759</v>
+        <v>4.1864452014198157E-5</v>
       </c>
       <c r="J137">
-        <v>4.1864452014198157E-5</v>
-      </c>
-      <c r="K137">
         <v>3858.6743164099998</v>
       </c>
+      <c r="K137" s="1">
+        <v>3.1</v>
+      </c>
       <c r="L137" s="1">
-        <v>3.1</v>
+        <v>87</v>
       </c>
       <c r="M137" s="1">
-        <v>87</v>
+        <v>61.5</v>
       </c>
       <c r="N137" s="1">
-        <v>61.5</v>
-      </c>
-      <c r="O137" s="1">
         <v>10.6</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>271</v>
       </c>
@@ -7846,28 +7432,25 @@
         <v>0</v>
       </c>
       <c r="I138">
-        <v>1.6735403</v>
+        <v>1.2941879330611235E-5</v>
       </c>
       <c r="J138">
-        <v>1.2941879330611235E-5</v>
-      </c>
-      <c r="K138">
         <v>83.197708129999995</v>
       </c>
+      <c r="K138" s="1">
+        <v>12.7</v>
+      </c>
       <c r="L138" s="1">
-        <v>12.7</v>
+        <v>52</v>
       </c>
       <c r="M138" s="1">
-        <v>52</v>
+        <v>13.8</v>
       </c>
       <c r="N138" s="1">
-        <v>13.8</v>
-      </c>
-      <c r="O138" s="1">
         <v>18.2</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>273</v>
       </c>
@@ -7893,28 +7476,25 @@
         <v>3.3406088494708043E-6</v>
       </c>
       <c r="I139">
-        <v>5.4599794166690838</v>
+        <v>6.7554279841678453E-7</v>
       </c>
       <c r="J139">
-        <v>6.7554279841678453E-7</v>
-      </c>
-      <c r="K139">
         <v>38.048713680000006</v>
       </c>
+      <c r="K139" s="1">
+        <v>29.2</v>
+      </c>
       <c r="L139" s="1">
-        <v>29.2</v>
+        <v>43</v>
       </c>
       <c r="M139" s="1">
-        <v>43</v>
+        <v>139.80000000000001</v>
       </c>
       <c r="N139" s="1">
-        <v>139.80000000000001</v>
-      </c>
-      <c r="O139" s="1">
         <v>31.2</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>275</v>
       </c>
@@ -7940,28 +7520,25 @@
         <v>1.0752927125979143E-5</v>
       </c>
       <c r="I140">
-        <v>24.100202833750352</v>
+        <v>1.7276514986175573E-5</v>
       </c>
       <c r="J140">
-        <v>1.7276514986175573E-5</v>
-      </c>
-      <c r="K140">
         <v>1124.0916748</v>
       </c>
+      <c r="K140" s="1">
+        <v>12.1</v>
+      </c>
       <c r="L140" s="1">
-        <v>12.1</v>
+        <v>74</v>
       </c>
       <c r="M140" s="1">
-        <v>74</v>
+        <v>249.6</v>
       </c>
       <c r="N140" s="1">
-        <v>249.6</v>
-      </c>
-      <c r="O140" s="1">
         <v>22.4</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>277</v>
       </c>
@@ -7987,28 +7564,25 @@
         <v>6.0711153348592066E-6</v>
       </c>
       <c r="I141">
-        <v>38.797709923664122</v>
+        <v>3.3175404461264294E-6</v>
       </c>
       <c r="J141">
-        <v>3.3175404461264294E-6</v>
-      </c>
-      <c r="K141">
         <v>250.56222534000003</v>
       </c>
+      <c r="K141" s="1">
+        <v>22.8</v>
+      </c>
       <c r="L141" s="1">
-        <v>22.8</v>
+        <v>70</v>
       </c>
       <c r="M141" s="1">
-        <v>70</v>
+        <v>38.6</v>
       </c>
       <c r="N141" s="1">
-        <v>38.6</v>
-      </c>
-      <c r="O141" s="1">
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>279</v>
       </c>
@@ -8034,28 +7608,25 @@
         <v>7.3870658410269145E-5</v>
       </c>
       <c r="I142">
-        <v>754.41170820261561</v>
+        <v>9.0424938499664234E-6</v>
       </c>
       <c r="J142">
-        <v>9.0424938499664234E-6</v>
-      </c>
-      <c r="K142">
         <v>444.65368651999995</v>
       </c>
+      <c r="K142" s="1">
+        <v>12.3</v>
+      </c>
       <c r="L142" s="1">
-        <v>12.3</v>
+        <v>74</v>
       </c>
       <c r="M142" s="1">
-        <v>74</v>
+        <v>56.1</v>
       </c>
       <c r="N142" s="1">
-        <v>56.1</v>
-      </c>
-      <c r="O142" s="1">
         <v>41.2</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>281</v>
       </c>
@@ -8081,28 +7652,25 @@
         <v>5.6472178066626192E-7</v>
       </c>
       <c r="I143">
-        <v>34.387229486400784</v>
+        <v>7.7676869870958552E-7</v>
       </c>
       <c r="J143">
-        <v>7.7676869870958552E-7</v>
-      </c>
-      <c r="K143">
         <v>38.908866879999998</v>
       </c>
+      <c r="K143" s="1">
+        <v>29</v>
+      </c>
       <c r="L143" s="1">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="M143" s="1">
-        <v>45</v>
+        <v>46.6</v>
       </c>
       <c r="N143" s="1">
-        <v>46.6</v>
-      </c>
-      <c r="O143" s="1">
         <v>48.7</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>283</v>
       </c>
@@ -8128,28 +7696,25 @@
         <v>5.3507730650994278E-5</v>
       </c>
       <c r="I144">
-        <v>153.78106911814777</v>
+        <v>3.4955293226830013E-6</v>
       </c>
       <c r="J144">
-        <v>3.4955293226830013E-6</v>
-      </c>
-      <c r="K144">
         <v>177.40888977000003</v>
       </c>
+      <c r="K144" s="1">
+        <v>13.7</v>
+      </c>
       <c r="L144" s="1">
-        <v>13.7</v>
+        <v>68</v>
       </c>
       <c r="M144" s="1">
-        <v>68</v>
+        <v>155.69999999999999</v>
       </c>
       <c r="N144" s="1">
-        <v>155.69999999999999</v>
-      </c>
-      <c r="O144" s="1">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>284</v>
       </c>
@@ -8175,28 +7740,25 @@
         <v>3.8585435420774683E-5</v>
       </c>
       <c r="I145">
-        <v>421.14226793765016</v>
+        <v>4.3103336293015357E-5</v>
       </c>
       <c r="J145">
-        <v>4.3103336293015357E-5</v>
-      </c>
-      <c r="K145">
         <v>1357.01745605</v>
       </c>
+      <c r="K145" s="1">
+        <v>18.100000000000001</v>
+      </c>
       <c r="L145" s="1">
-        <v>18.100000000000001</v>
+        <v>76</v>
       </c>
       <c r="M145" s="1">
-        <v>76</v>
+        <v>70.7</v>
       </c>
       <c r="N145" s="1">
-        <v>70.7</v>
-      </c>
-      <c r="O145" s="1">
         <v>37.200000000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>286</v>
       </c>
@@ -8222,28 +7784,25 @@
         <v>3.6203487806087777E-7</v>
       </c>
       <c r="I146">
-        <v>63.177068174548971</v>
+        <v>1.0891572463246E-6</v>
       </c>
       <c r="J146">
-        <v>1.0891572463246E-6</v>
-      </c>
-      <c r="K146">
         <v>33.916576390000003</v>
       </c>
+      <c r="K146" s="1">
+        <v>29.2</v>
+      </c>
       <c r="L146" s="1">
-        <v>29.2</v>
+        <v>43</v>
       </c>
       <c r="M146" s="1">
-        <v>43</v>
+        <v>54.7</v>
       </c>
       <c r="N146" s="1">
-        <v>54.7</v>
-      </c>
-      <c r="O146" s="1">
         <v>25.1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>288</v>
       </c>
@@ -8269,28 +7828,25 @@
         <v>5.3545969472035813E-4</v>
       </c>
       <c r="I147">
-        <v>21427.7</v>
+        <v>6.5116938613057928E-5</v>
       </c>
       <c r="J147">
-        <v>6.5116938613057928E-5</v>
-      </c>
-      <c r="K147">
         <v>10246.138671880002</v>
       </c>
+      <c r="K147" s="1">
+        <v>12.4</v>
+      </c>
       <c r="L147" s="1">
-        <v>12.4</v>
+        <v>84</v>
       </c>
       <c r="M147" s="1">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="N147" s="1">
-        <v>139</v>
-      </c>
-      <c r="O147" s="1">
         <v>7.6</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>290</v>
       </c>
@@ -8316,28 +7872,25 @@
         <v>1.2132658487906773E-5</v>
       </c>
       <c r="I148">
-        <v>56.04591295234205</v>
+        <v>1.6190140987945642E-5</v>
       </c>
       <c r="J148">
-        <v>1.6190140987945642E-5</v>
-      </c>
-      <c r="K148">
         <v>1591.5332031299997</v>
       </c>
+      <c r="K148" s="1">
+        <v>13.4</v>
+      </c>
       <c r="L148" s="1">
-        <v>13.4</v>
+        <v>80</v>
       </c>
       <c r="M148" s="1">
-        <v>80</v>
+        <v>13.3</v>
       </c>
       <c r="N148" s="1">
-        <v>13.3</v>
-      </c>
-      <c r="O148" s="1">
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>293</v>
       </c>
@@ -8363,28 +7916,25 @@
         <v>8.7624309409016481E-6</v>
       </c>
       <c r="I149">
-        <v>57.921286440349505</v>
+        <v>1.7561635724627875E-6</v>
       </c>
       <c r="J149">
-        <v>1.7561635724627875E-6</v>
-      </c>
-      <c r="K149">
         <v>98.824577329999983</v>
       </c>
+      <c r="K149" s="1">
+        <v>11.5</v>
+      </c>
       <c r="L149" s="1">
-        <v>11.5</v>
+        <v>73</v>
       </c>
       <c r="M149" s="1">
-        <v>73</v>
+        <v>17.5</v>
       </c>
       <c r="N149" s="1">
-        <v>17.5</v>
-      </c>
-      <c r="O149" s="1">
         <v>28.9</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>294</v>
       </c>
@@ -8410,28 +7960,25 @@
         <v>1.1817997646149442E-5</v>
       </c>
       <c r="I150">
-        <v>482</v>
+        <v>1.6902892775798312E-5</v>
       </c>
       <c r="J150">
-        <v>1.6902892775798312E-5</v>
-      </c>
-      <c r="K150">
         <v>94.229377750000026</v>
       </c>
+      <c r="K150" s="1">
+        <v>33.700000000000003</v>
+      </c>
       <c r="L150" s="1">
-        <v>33.700000000000003</v>
+        <v>74</v>
       </c>
       <c r="M150" s="1">
-        <v>74</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="N150" s="1">
-        <v>81.099999999999994</v>
-      </c>
-      <c r="O150" s="1">
         <v>16.8</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>296</v>
       </c>
@@ -8457,29 +8004,26 @@
         <v>2.7990265358911708E-7</v>
       </c>
       <c r="I151">
-        <v>261.9212448431723</v>
+        <v>2.7152759801099548E-6</v>
       </c>
       <c r="J151">
-        <v>2.7152759801099548E-6</v>
-      </c>
-      <c r="K151">
         <v>129.57595825000001</v>
       </c>
+      <c r="K151" s="1">
+        <v>26.4</v>
+      </c>
       <c r="L151" s="1">
-        <v>26.4</v>
+        <v>75</v>
       </c>
       <c r="M151" s="1">
-        <v>75</v>
+        <v>34.6</v>
       </c>
       <c r="N151" s="1">
-        <v>34.6</v>
-      </c>
-      <c r="O151" s="1">
         <v>30.1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N176" xr:uid="{39FBA56A-FE64-42BC-A42B-2DDC9C916F81}"/>
+  <autoFilter ref="A1:M176" xr:uid="{39FBA56A-FE64-42BC-A42B-2DDC9C916F81}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
